--- a/sriramModel-nelson-atypical-patientID_58-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_58-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.017939520727071</v>
+        <v>2.002966423594889</v>
       </c>
       <c r="C2">
-        <v>2.022225763489196</v>
+        <v>2.001426458930414</v>
       </c>
       <c r="D2">
-        <v>2.041539032047838</v>
+        <v>2.003616243179072</v>
       </c>
       <c r="E2">
-        <v>2.000463504389478</v>
+        <v>2.002208071622785</v>
       </c>
       <c r="F2">
-        <v>2.027457616661063</v>
+        <v>2.006699967704548</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.036159857773467</v>
+        <v>2.006058940458666</v>
       </c>
       <c r="C3">
-        <v>2.044837592156604</v>
+        <v>2.002887749848551</v>
       </c>
       <c r="D3">
-        <v>2.083107094391242</v>
+        <v>2.007302053930927</v>
       </c>
       <c r="E3">
-        <v>2.001014840362008</v>
+        <v>2.004464669234919</v>
       </c>
       <c r="F3">
-        <v>2.05540133820278</v>
+        <v>2.013546061055929</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.054633575028779</v>
+        <v>2.009271015031972</v>
       </c>
       <c r="C4">
-        <v>2.067794707740225</v>
+        <v>2.004384640087723</v>
       </c>
       <c r="D4">
-        <v>2.124674952411793</v>
+        <v>2.011056585153069</v>
       </c>
       <c r="E4">
-        <v>2.001651140880146</v>
+        <v>2.00676991953389</v>
       </c>
       <c r="F4">
-        <v>2.083818566643638</v>
+        <v>2.020529019428134</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.073335193048846</v>
+        <v>2.012596677018353</v>
       </c>
       <c r="C5">
-        <v>2.091059297406435</v>
+        <v>2.005917956670227</v>
       </c>
       <c r="D5">
-        <v>2.166215475189648</v>
+        <v>2.014879218512819</v>
       </c>
       <c r="E5">
-        <v>2.0023698473457</v>
+        <v>2.009124066521777</v>
       </c>
       <c r="F5">
-        <v>2.112696361360081</v>
+        <v>2.02764042639384</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.092241065389429</v>
+        <v>2.016030485734797</v>
       </c>
       <c r="C6">
-        <v>2.114596332313381</v>
+        <v>2.007488588844365</v>
       </c>
       <c r="D6">
-        <v>2.207703562724376</v>
+        <v>2.018769557713344</v>
       </c>
       <c r="E6">
-        <v>2.003168694879586</v>
+        <v>2.011527470148075</v>
       </c>
       <c r="F6">
-        <v>2.142021486958403</v>
+        <v>2.034872693485196</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.111329319266248</v>
+        <v>2.019567504692827</v>
       </c>
       <c r="C7">
-        <v>2.138373421223025</v>
+        <v>2.009097488299318</v>
       </c>
       <c r="D7">
-        <v>2.249116049511637</v>
+        <v>2.022727424894569</v>
       </c>
       <c r="E7">
-        <v>2.004045699996729</v>
+        <v>2.013980605263785</v>
       </c>
       <c r="F7">
-        <v>2.171780458905024</v>
+        <v>2.042219007750731</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.130579799653878</v>
+        <v>2.02320329871358</v>
       </c>
       <c r="C8">
-        <v>2.162360783587966</v>
+        <v>2.010745672999203</v>
       </c>
       <c r="D8">
-        <v>2.290431608692436</v>
+        <v>2.026752856492003</v>
       </c>
       <c r="E8">
-        <v>2.004999151179354</v>
+        <v>2.016484063214905</v>
       </c>
       <c r="F8">
-        <v>2.201959574325085</v>
+        <v>2.049673304560786</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.149974010654648</v>
+        <v>2.02693389666893</v>
       </c>
       <c r="C9">
-        <v>2.186531115360408</v>
+        <v>2.012434229863459</v>
       </c>
       <c r="D9">
-        <v>2.331630690381032</v>
+        <v>2.030846099745585</v>
       </c>
       <c r="E9">
-        <v>2.006027598419394</v>
+        <v>2.01903855245407</v>
       </c>
       <c r="F9">
-        <v>2.232544951011474</v>
+        <v>2.057230236796486</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.169495051473204</v>
+        <v>2.03075577794451</v>
       </c>
       <c r="C10">
-        <v>2.210859497826821</v>
+        <v>2.014164316865696</v>
       </c>
       <c r="D10">
-        <v>2.372695446628394</v>
+        <v>2.035007610375164</v>
       </c>
       <c r="E10">
-        <v>2.007129843316083</v>
+        <v>2.021644899067439</v>
       </c>
       <c r="F10">
-        <v>2.263522564841923</v>
+        <v>2.064885145021849</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.189127563133143</v>
+        <v>2.034665856859836</v>
       </c>
       <c r="C11">
-        <v>2.235323315678669</v>
+        <v>2.01593716592774</v>
       </c>
       <c r="D11">
-        <v>2.41360965823105</v>
+        <v>2.039238050920408</v>
       </c>
       <c r="E11">
-        <v>2.008304939724855</v>
+        <v>2.024304048212833</v>
       </c>
       <c r="F11">
-        <v>2.294878281454229</v>
+        <v>2.072634029205554</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.208857683167854</v>
+        <v>2.038661466800985</v>
       </c>
       <c r="C12">
-        <v>2.259902181384898</v>
+        <v>2.017754086343542</v>
       </c>
       <c r="D12">
-        <v>2.454358669344717</v>
+        <v>2.043538289593436</v>
       </c>
       <c r="E12">
-        <v>2.009552170280024</v>
+        <v>2.027017066083744</v>
       </c>
       <c r="F12">
-        <v>2.326597888992334</v>
+        <v>2.080473524907339</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.228672999643813</v>
+        <v>2.04274034490125</v>
       </c>
       <c r="C13">
-        <v>2.284577845606141</v>
+        <v>2.01961646749036</v>
       </c>
       <c r="D13">
-        <v>2.494929328075667</v>
+        <v>2.047909399868848</v>
       </c>
       <c r="E13">
-        <v>2.010871040126518</v>
+        <v>2.02978514160954</v>
       </c>
       <c r="F13">
-        <v>2.358667129131889</v>
+        <v>2.088400880895549</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.248562506590493</v>
+        <v>2.046900616729423</v>
       </c>
       <c r="C14">
-        <v>2.309334156977211</v>
+        <v>2.021525784251101</v>
       </c>
       <c r="D14">
-        <v>2.535309932186792</v>
+        <v>2.05235266105431</v>
       </c>
       <c r="E14">
-        <v>2.012261273176745</v>
+        <v>2.032609590350173</v>
       </c>
       <c r="F14">
-        <v>2.391071730826514</v>
+        <v>2.096413935432289</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.268516560788258</v>
+        <v>2.05114078159795</v>
       </c>
       <c r="C15">
-        <v>2.334156982809466</v>
+        <v>2.023483601508048</v>
       </c>
       <c r="D15">
-        <v>2.57549017084281</v>
+        <v>2.056869559726827</v>
       </c>
       <c r="E15">
-        <v>2.013722805962161</v>
+        <v>2.035491858077645</v>
       </c>
       <c r="F15">
-        <v>2.423797431758968</v>
+        <v>2.104511094340056</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.288526847060469</v>
+        <v>2.055459704056125</v>
       </c>
       <c r="C16">
-        <v>2.359034125685435</v>
+        <v>2.025491578076253</v>
       </c>
       <c r="D16">
-        <v>2.615461069421816</v>
+        <v>2.061461791960293</v>
       </c>
       <c r="E16">
-        <v>2.015255778142404</v>
+        <v>2.038433524172775</v>
       </c>
       <c r="F16">
-        <v>2.456830009421977</v>
+        <v>2.112691313691518</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.308586339941276</v>
+        <v>2.059856602960759</v>
       </c>
       <c r="C17">
-        <v>2.383955253887652</v>
+        <v>2.027551471769285</v>
       </c>
       <c r="D17">
-        <v>2.655214945931984</v>
+        <v>2.066131266379494</v>
       </c>
       <c r="E17">
-        <v>2.01686052433916</v>
+        <v>2.041436306101654</v>
       </c>
       <c r="F17">
-        <v>2.490155307388503</v>
+        <v>2.120954084704323</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.328689274452987</v>
+        <v>2.064331035835352</v>
       </c>
       <c r="C18">
-        <v>2.408911870148043</v>
+        <v>2.029665145606344</v>
       </c>
       <c r="D18">
-        <v>2.694745371892057</v>
+        <v>2.070880108231369</v>
       </c>
       <c r="E18">
-        <v>2.01853756772602</v>
+        <v>2.044502065011894</v>
       </c>
       <c r="F18">
-        <v>2.523759254272852</v>
+        <v>2.129299419174747</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.348831125384286</v>
+        <v>2.068882893059493</v>
       </c>
       <c r="C19">
-        <v>2.433897273999277</v>
+        <v>2.031834574381537</v>
       </c>
       <c r="D19">
-        <v>2.734047137210277</v>
+        <v>2.075710664469145</v>
       </c>
       <c r="E19">
-        <v>2.020287614593783</v>
+        <v>2.047632812000733</v>
       </c>
       <c r="F19">
-        <v>2.557627909250928</v>
+        <v>2.137727836569446</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.369008572290726</v>
+        <v>2.073512386679032</v>
       </c>
       <c r="C20">
-        <v>2.458906505034606</v>
+        <v>2.034061851391062</v>
       </c>
       <c r="D20">
-        <v>2.773116217298325</v>
+        <v>2.080625509950842</v>
       </c>
       <c r="E20">
-        <v>2.022111548816854</v>
+        <v>2.050830714782626</v>
       </c>
       <c r="F20">
-        <v>2.591747469189283</v>
+        <v>2.146240351664368</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.389219489981111</v>
+        <v>2.07822004456</v>
       </c>
       <c r="C21">
-        <v>2.483936298155224</v>
+        <v>2.036349196416634</v>
       </c>
       <c r="D21">
-        <v>2.811949748969468</v>
+        <v>2.085627454791522</v>
       </c>
       <c r="E21">
-        <v>2.024010426130359</v>
+        <v>2.0540981057381</v>
       </c>
       <c r="F21">
-        <v>2.626104295920884</v>
+        <v>2.154838468207473</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.40946292876814</v>
+        <v>2.08300670608465</v>
       </c>
       <c r="C22">
-        <v>2.508985045839382</v>
+        <v>2.03869896280544</v>
       </c>
       <c r="D22">
-        <v>2.85054599155146</v>
+        <v>2.09071955296109</v>
       </c>
       <c r="E22">
-        <v>2.025985469090748</v>
+        <v>2.057437489279232</v>
       </c>
       <c r="F22">
-        <v>2.660684933727044</v>
+        <v>2.163524163532887</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.429739095668266</v>
+        <v>2.087873515627662</v>
       </c>
       <c r="C23">
-        <v>2.534052770290122</v>
+        <v>2.041113647943675</v>
       </c>
       <c r="D23">
-        <v>2.888904346285921</v>
+        <v>2.095905112235535</v>
       </c>
       <c r="E23">
-        <v>2.028038062302965</v>
+        <v>2.060851552856815</v>
       </c>
       <c r="F23">
-        <v>2.695476129482086</v>
+        <v>2.172299896281404</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.450049354230035</v>
+        <v>2.092821919636185</v>
       </c>
       <c r="C24">
-        <v>2.55914108274338</v>
+        <v>2.043595903358883</v>
       </c>
       <c r="D24">
-        <v>2.927025262074374</v>
+        <v>2.101187705639695</v>
       </c>
       <c r="E24">
-        <v>2.030169749024032</v>
+        <v>2.064343177820269</v>
       </c>
       <c r="F24">
-        <v>2.730464854621841</v>
+        <v>2.181168588733717</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.470396220197417</v>
+        <v>2.097853662528741</v>
       </c>
       <c r="C25">
-        <v>2.5842531753634</v>
+        <v>2.046148544008245</v>
       </c>
       <c r="D25">
-        <v>2.964910322847059</v>
+        <v>2.106571184464353</v>
       </c>
       <c r="E25">
-        <v>2.03238222584301</v>
+        <v>2.067915450423194</v>
       </c>
       <c r="F25">
-        <v>2.765638323254653</v>
+        <v>2.190133639893625</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.490783352512975</v>
+        <v>2.102970785779946</v>
       </c>
       <c r="C26">
-        <v>2.609393786758925</v>
+        <v>2.048774563183125</v>
       </c>
       <c r="D26">
-        <v>3.002562200237159</v>
+        <v>2.112059693055816</v>
       </c>
       <c r="E26">
-        <v>2.034677341727922</v>
+        <v>2.071571676535487</v>
       </c>
       <c r="F26">
-        <v>2.800984011307618</v>
+        <v>2.199198920272122</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.51121557519151</v>
+        <v>2.108175626128439</v>
       </c>
       <c r="C27">
-        <v>2.634569192170665</v>
+        <v>2.051477144659388</v>
       </c>
       <c r="D27">
-        <v>3.039984685141667</v>
+        <v>2.117657685596518</v>
       </c>
       <c r="E27">
-        <v>2.037057093496992</v>
+        <v>2.075315396715516</v>
       </c>
       <c r="F27">
-        <v>2.836489671393885</v>
+        <v>2.208368773685224</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.531698880522538</v>
+        <v>2.113470818234948</v>
       </c>
       <c r="C28">
-        <v>2.65978721112544</v>
+        <v>2.054259676164158</v>
       </c>
       <c r="D28">
-        <v>3.077182673426903</v>
+        <v>2.123369944954664</v>
       </c>
       <c r="E28">
-        <v>2.039523624484717</v>
+        <v>2.079150402557774</v>
       </c>
       <c r="F28">
-        <v>2.872143348452682</v>
+        <v>2.217648031899296</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.552240444288365</v>
+        <v>2.118859297119839</v>
       </c>
       <c r="C29">
-        <v>2.685057160816319</v>
+        <v>2.057125768539028</v>
       </c>
       <c r="D29">
-        <v>3.114162193162677</v>
+        <v>2.129201603918583</v>
       </c>
       <c r="E29">
-        <v>2.042079223051145</v>
+        <v>2.083080754717296</v>
       </c>
       <c r="F29">
-        <v>2.907933394687705</v>
+        <v>2.227042012675751</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.572848662898335</v>
+        <v>2.124344301802566</v>
       </c>
       <c r="C30">
-        <v>2.710389899475028</v>
+        <v>2.060079272277662</v>
       </c>
       <c r="D30">
-        <v>3.15093041743365</v>
+        <v>2.135158169055476</v>
       </c>
       <c r="E30">
-        <v>2.044726319927226</v>
+        <v>2.087110805253233</v>
       </c>
       <c r="F30">
-        <v>2.943848481519466</v>
+        <v>2.236556541395761</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.593533173394166</v>
+        <v>2.129929381066978</v>
       </c>
       <c r="C31">
-        <v>2.735797782479637</v>
+        <v>2.06312429575804</v>
       </c>
       <c r="D31">
-        <v>3.187495711304467</v>
+        <v>2.141245547492046</v>
       </c>
       <c r="E31">
-        <v>2.047467488890574</v>
+        <v>2.091245220903312</v>
       </c>
       <c r="F31">
-        <v>2.979877613058289</v>
+        <v>2.246197963251385</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.614304898156296</v>
+        <v>2.135618401882433</v>
       </c>
       <c r="C32">
-        <v>2.761294695100516</v>
+        <v>2.06626523108053</v>
       </c>
       <c r="D32">
-        <v>3.223867671975923</v>
+        <v>2.147470076958618</v>
       </c>
       <c r="E32">
-        <v>2.05030544634545</v>
+        <v>2.095489006883818</v>
       </c>
       <c r="F32">
-        <v>3.016010137506374</v>
+        <v>2.25597315687622</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.635176104406578</v>
+        <v>2.141415558839461</v>
       </c>
       <c r="C33">
-        <v>2.786896032382359</v>
+        <v>2.069506776851595</v>
       </c>
       <c r="D33">
-        <v>3.260057173141589</v>
+        <v>2.153838559489148</v>
       </c>
       <c r="E33">
-        <v>2.053243050531829</v>
+        <v>2.099847539543387</v>
       </c>
       <c r="F33">
-        <v>3.052235757401087</v>
+        <v>2.265889571095155</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.656160445693162</v>
+        <v>2.147325384512055</v>
       </c>
       <c r="C34">
-        <v>2.812618722366801</v>
+        <v>2.072853963478271</v>
       </c>
       <c r="D34">
-        <v>3.29607642878795</v>
+        <v>2.160358299227811</v>
       </c>
       <c r="E34">
-        <v>2.056283304879647</v>
+        <v>2.104326598372572</v>
       </c>
       <c r="F34">
-        <v>3.088544538004187</v>
+        <v>2.275955233851638</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.677273048194839</v>
+        <v>2.153352765397074</v>
       </c>
       <c r="C35">
-        <v>2.838481220686794</v>
+        <v>2.076312189012911</v>
       </c>
       <c r="D35">
-        <v>3.331939058063538</v>
+        <v>2.167037144860441</v>
       </c>
       <c r="E35">
-        <v>2.059429357727189</v>
+        <v>2.108932400667591</v>
       </c>
       <c r="F35">
-        <v>3.124926915195092</v>
+        <v>2.286178800952666</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.698530600029944</v>
+        <v>2.159502958669261</v>
       </c>
       <c r="C36">
-        <v>2.864503523603444</v>
+        <v>2.079887250441363</v>
       </c>
       <c r="D36">
-        <v>3.367660167084668</v>
+        <v>2.17388353726782</v>
       </c>
       <c r="E36">
-        <v>2.062684505868147</v>
+        <v>2.113671644220998</v>
       </c>
       <c r="F36">
-        <v>3.161373702841035</v>
+        <v>2.296569585035016</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.71995142305713</v>
+        <v>2.165781611702789</v>
       </c>
       <c r="C37">
-        <v>2.890707164939512</v>
+        <v>2.083585379279342</v>
       </c>
       <c r="D37">
-        <v>3.403256429709246</v>
+        <v>2.180906563089647</v>
       </c>
       <c r="E37">
-        <v>2.066052198496281</v>
+        <v>2.118551555310925</v>
       </c>
       <c r="F37">
-        <v>3.197876096995973</v>
+        <v>2.307137592767565</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.741555617140625</v>
+        <v>2.172194783982192</v>
       </c>
       <c r="C38">
-        <v>2.917115223196277</v>
+        <v>2.0874132898228</v>
       </c>
       <c r="D38">
-        <v>3.4387462064071</v>
+        <v>2.188116015044843</v>
       </c>
       <c r="E38">
-        <v>2.069536039037704</v>
+        <v>2.123579940583341</v>
       </c>
       <c r="F38">
-        <v>3.234425680316475</v>
+        <v>2.317893593510505</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.763365191516554</v>
+        <v>2.178748976600808</v>
       </c>
       <c r="C39">
-        <v>2.943752291542304</v>
+        <v>2.091378223888403</v>
       </c>
       <c r="D39">
-        <v>3.474149658660153</v>
+        <v>2.19552245978726</v>
       </c>
       <c r="E39">
-        <v>2.07313979275719</v>
+        <v>2.128765242075335</v>
       </c>
       <c r="F39">
-        <v>3.271014424722138</v>
+        <v>2.328849147471495</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.785404179664842</v>
+        <v>2.185451162843278</v>
       </c>
       <c r="C40">
-        <v>2.970644490732559</v>
+        <v>2.095488001886042</v>
       </c>
       <c r="D40">
-        <v>3.509488878340025</v>
+        <v>2.203137314325612</v>
       </c>
       <c r="E40">
-        <v>2.076867391669241</v>
+        <v>2.134116611705837</v>
       </c>
       <c r="F40">
-        <v>3.307634693462377</v>
+        <v>2.340016698950333</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.807698869195464</v>
+        <v>2.192308821418529</v>
       </c>
       <c r="C41">
-        <v>2.997819385154858</v>
+        <v>2.099751095381035</v>
       </c>
       <c r="D41">
-        <v>3.544788040483027</v>
+        <v>2.210972932829769</v>
       </c>
       <c r="E41">
-        <v>2.080722940137098</v>
+        <v>2.139643986410146</v>
       </c>
       <c r="F41">
-        <v>3.344279239652214</v>
+        <v>2.351409635407825</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.830277978879416</v>
+        <v>2.199329980472824</v>
       </c>
       <c r="C42">
-        <v>3.025305980102091</v>
+        <v>2.104176686581785</v>
       </c>
       <c r="D42">
-        <v>3.580073580187189</v>
+        <v>2.219042704425954</v>
       </c>
       <c r="E42">
-        <v>2.084710726217921</v>
+        <v>2.145358167389497</v>
       </c>
       <c r="F42">
-        <v>3.380941205208807</v>
+        <v>2.363042364988272</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.853172862233985</v>
+        <v>2.206523265277233</v>
       </c>
       <c r="C43">
-        <v>3.053134594502909</v>
+        <v>2.108774744919758</v>
       </c>
       <c r="D43">
-        <v>3.615374384028895</v>
+        <v>2.22736116415205</v>
       </c>
       <c r="E43">
-        <v>2.088835227624259</v>
+        <v>2.151270929036943</v>
       </c>
       <c r="F43">
-        <v>3.417614118427712</v>
+        <v>2.374930445473915</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.876417834039003</v>
+        <v>2.213897953000671</v>
       </c>
       <c r="C44">
-        <v>3.081336760965629</v>
+        <v>2.113556128596728</v>
       </c>
       <c r="D44">
-        <v>3.650721988372601</v>
+        <v>2.235944118915129</v>
       </c>
       <c r="E44">
-        <v>2.093101124349957</v>
+        <v>2.15739513041597</v>
       </c>
       <c r="F44">
-        <v>3.45429188897001</v>
+        <v>2.38709064324308</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.900050413037372</v>
+        <v>2.221464030082296</v>
       </c>
       <c r="C45">
-        <v>3.109945126803177</v>
+        <v>2.118532676286611</v>
       </c>
       <c r="D45">
-        <v>3.686150839516078</v>
+        <v>2.244808790725416</v>
       </c>
       <c r="E45">
-        <v>2.097513311923544</v>
+        <v>2.163744839822136</v>
       </c>
       <c r="F45">
-        <v>3.49096880163788</v>
+        <v>2.39954111313366</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.924111670284243</v>
+        <v>2.229232272104587</v>
       </c>
       <c r="C46">
-        <v>3.138993177260816</v>
+        <v>2.123717320368054</v>
       </c>
       <c r="D46">
-        <v>3.721698556287177</v>
+        <v>2.253973979857862</v>
       </c>
       <c r="E46">
-        <v>2.102076910880615</v>
+        <v>2.170335485311706</v>
       </c>
       <c r="F46">
-        <v>3.527639509057197</v>
+        <v>2.412301510209517</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.948646663705672</v>
+        <v>2.237214325063015</v>
       </c>
       <c r="C47">
-        <v>3.168514995366333</v>
+        <v>2.129124238649197</v>
       </c>
       <c r="D47">
-        <v>3.757406219762873</v>
+        <v>2.263460251031456</v>
       </c>
       <c r="E47">
-        <v>2.106797287449373</v>
+        <v>2.17718403657226</v>
       </c>
       <c r="F47">
-        <v>3.564299023818112</v>
+        <v>2.425393145961646</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.973704778022328</v>
+        <v>2.245422795425423</v>
       </c>
       <c r="C48">
-        <v>3.198544908182183</v>
+        <v>2.134768990323627</v>
       </c>
       <c r="D48">
-        <v>3.793318691095957</v>
+        <v>2.27329014620513</v>
       </c>
       <c r="E48">
-        <v>2.111680068399401</v>
+        <v>2.184309206005567</v>
       </c>
       <c r="F48">
-        <v>3.600942706712706</v>
+        <v>2.438839233476271</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.999340267275438</v>
+        <v>2.253871364852693</v>
       </c>
       <c r="C49">
-        <v>3.229117145289156</v>
+        <v>2.140668690718917</v>
       </c>
       <c r="D49">
-        <v>3.829484988616781</v>
+        <v>2.283488428174647</v>
       </c>
       <c r="E49">
-        <v>2.116731158618073</v>
+        <v>2.191731651073605</v>
       </c>
       <c r="F49">
-        <v>3.63756625551633</v>
+        <v>2.452665002954888</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.025612805601392</v>
+        <v>2.262574919017592</v>
       </c>
       <c r="C50">
-        <v>3.260265345676464</v>
+        <v>2.146842242052426</v>
       </c>
       <c r="D50">
-        <v>3.865958664457403</v>
+        <v>2.294082359822279</v>
       </c>
       <c r="E50">
-        <v>2.121956768665255</v>
+        <v>2.199474282860108</v>
       </c>
       <c r="F50">
-        <v>3.674165692120041</v>
+        <v>2.46689805708674</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.052587916033562</v>
+        <v>2.271549698434232</v>
       </c>
       <c r="C51">
-        <v>3.292022007638483</v>
+        <v>2.153310541406218</v>
       </c>
       <c r="D51">
-        <v>3.902798195092285</v>
+        <v>2.305102024620729</v>
       </c>
       <c r="E51">
-        <v>2.127363432354324</v>
+        <v>2.207562574536308</v>
       </c>
       <c r="F51">
-        <v>3.710737349164551</v>
+        <v>2.481568580710556</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.080337800333184</v>
+        <v>2.280813451035844</v>
       </c>
       <c r="C52">
-        <v>3.324417879339081</v>
+        <v>2.160096756986041</v>
       </c>
       <c r="D52">
-        <v>3.940067430638974</v>
+        <v>2.316580695065632</v>
       </c>
       <c r="E52">
-        <v>2.132958037929487</v>
+        <v>2.216024893764539</v>
       </c>
       <c r="F52">
-        <v>3.747277852508869</v>
+        <v>2.496709659300005</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.108942193454258</v>
+        <v>2.290385655962715</v>
       </c>
       <c r="C53">
-        <v>3.357481318889568</v>
+        <v>2.167226689592023</v>
       </c>
       <c r="D53">
-        <v>3.977836326523965</v>
+        <v>2.328555255996203</v>
       </c>
       <c r="E53">
-        <v>2.138747896575158</v>
+        <v>2.224892970502921</v>
       </c>
       <c r="F53">
-        <v>3.783784709269703</v>
+        <v>2.512357752977228</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.13849128798732</v>
+        <v>2.30028775167983</v>
       </c>
       <c r="C54">
-        <v>3.391239836729905</v>
+        <v>2.174729097670734</v>
       </c>
       <c r="D54">
-        <v>4.016183764588563</v>
+        <v>2.3410666903039</v>
       </c>
       <c r="E54">
-        <v>2.144741111809422</v>
+        <v>2.234202414846187</v>
       </c>
       <c r="F54">
-        <v>3.820262674403322</v>
+        <v>2.528552886721339</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.169089228723137</v>
+        <v>2.310543394624358</v>
       </c>
       <c r="C55">
-        <v>3.425721493079016</v>
+        <v>2.182636146108887</v>
       </c>
       <c r="D55">
-        <v>4.055200573676871</v>
+        <v>2.354160638652576</v>
       </c>
       <c r="E55">
-        <v>2.150946966004438</v>
+        <v>2.243993289168258</v>
       </c>
       <c r="F55">
-        <v>3.856729194396551</v>
+        <v>2.545339406439842</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.200854618020893</v>
+        <v>2.321178783697331</v>
       </c>
       <c r="C56">
-        <v>3.460953819695706</v>
+        <v>2.190983984974686</v>
       </c>
       <c r="D56">
-        <v>4.09498964565427</v>
+        <v>2.367888036183468</v>
       </c>
       <c r="E56">
-        <v>2.157375915843521</v>
+        <v>2.254310796474181</v>
       </c>
       <c r="F56">
-        <v>3.89321352251882</v>
+        <v>2.562766408234628</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.233920939497206</v>
+        <v>2.332223050731233</v>
       </c>
       <c r="C57">
-        <v>3.496962629049627</v>
+        <v>2.199813198753727</v>
       </c>
       <c r="D57">
-        <v>4.135665864889102</v>
+        <v>2.382305846867904</v>
       </c>
       <c r="E57">
-        <v>2.1640396100039</v>
+        <v>2.265206184397523</v>
       </c>
       <c r="F57">
-        <v>3.929755332784406</v>
+        <v>2.580888384407476</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.26843673742908</v>
+        <v>2.343708710087744</v>
       </c>
       <c r="C58">
-        <v>3.533770909971867</v>
+        <v>2.209169735362528</v>
       </c>
       <c r="D58">
-        <v>4.177355846240494</v>
+        <v>2.397477896021083</v>
       </c>
       <c r="E58">
-        <v>2.170950879478121</v>
+        <v>2.276737634131168</v>
       </c>
       <c r="F58">
-        <v>3.966403378982232</v>
+        <v>2.599765901809244</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.304565403405985</v>
+        <v>2.355672125223014</v>
       </c>
       <c r="C59">
-        <v>3.57139774321575</v>
+        <v>2.219105662097704</v>
       </c>
       <c r="D59">
-        <v>4.220197374993684</v>
+        <v>2.413475809024157</v>
       </c>
       <c r="E59">
-        <v>2.178123752794607</v>
+        <v>2.288971590302561</v>
       </c>
       <c r="F59">
-        <v>4.003214174127578</v>
+        <v>2.61946641310003</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.342484336535129</v>
+        <v>2.368154200646043</v>
       </c>
       <c r="C60">
-        <v>3.609857285474901</v>
+        <v>2.229680141409196</v>
       </c>
       <c r="D60">
-        <v>4.264338352495235</v>
+        <v>2.430380058831473</v>
       </c>
       <c r="E60">
-        <v>2.18557348273664</v>
+        <v>2.301984089899157</v>
       </c>
       <c r="F60">
-        <v>4.040250680479573</v>
+        <v>2.640065173895593</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.382383165156859</v>
+        <v>2.381201113480136</v>
       </c>
       <c r="C61">
-        <v>3.649158069364296</v>
+        <v>2.240960605622202</v>
       </c>
       <c r="D61">
-        <v>4.309935102895585</v>
+        <v>2.448281116349911</v>
       </c>
       <c r="E61">
-        <v>2.193316585551726</v>
+        <v>2.315862344645466</v>
       </c>
       <c r="F61">
-        <v>4.077581006084943</v>
+        <v>2.661646227990903</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.424460677769203</v>
+        <v>2.394865073724737</v>
       </c>
       <c r="C62">
-        <v>3.689302372621749</v>
+        <v>2.253024149801463</v>
       </c>
       <c r="D62">
-        <v>4.357149769141955</v>
+        <v>2.467280682719717</v>
       </c>
       <c r="E62">
-        <v>2.201370889980368</v>
+        <v>2.330706648074286</v>
       </c>
       <c r="F62">
-        <v>4.115277107415241</v>
+        <v>2.684303468684424</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.468920043743576</v>
+        <v>2.409205577593964</v>
       </c>
       <c r="C63">
-        <v>3.730285846155294</v>
+        <v>2.265959151539203</v>
       </c>
       <c r="D63">
-        <v>4.406146531851388</v>
+        <v>2.487492958899768</v>
       </c>
       <c r="E63">
-        <v>2.209755600740417</v>
+        <v>2.34663259516896</v>
       </c>
       <c r="F63">
-        <v>4.153413500903552</v>
+        <v>2.70814174144705</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.51596195181034</v>
+        <v>2.424290564782015</v>
       </c>
       <c r="C64">
-        <v>3.772097358072118</v>
+        <v>2.279867129075499</v>
       </c>
       <c r="D64">
-        <v>4.457086430100894</v>
+        <v>2.509045871911477</v>
       </c>
       <c r="E64">
-        <v>2.218491379315445</v>
+        <v>2.363773558419387</v>
       </c>
       <c r="F64">
-        <v>4.192065988644892</v>
+        <v>2.733277944531974</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.565775483994499</v>
+        <v>2.440197865173584</v>
       </c>
       <c r="C65">
-        <v>3.814719098381904</v>
+        <v>2.2948648421457</v>
       </c>
       <c r="D65">
-        <v>4.510120635723236</v>
+        <v>2.532082123650953</v>
       </c>
       <c r="E65">
-        <v>2.227600441481131</v>
+        <v>2.38228335729875</v>
       </c>
       <c r="F65">
-        <v>4.231310407740545</v>
+        <v>2.75984205732317</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.618526866862692</v>
+        <v>2.457016953682867</v>
       </c>
       <c r="C66">
-        <v>3.858126885448647</v>
+        <v>2.311086610468128</v>
       </c>
       <c r="D66">
-        <v>4.565382239741965</v>
+        <v>2.556759850588984</v>
       </c>
       <c r="E66">
-        <v>2.237106670793023</v>
+        <v>2.402338986488708</v>
       </c>
       <c r="F66">
-        <v>4.271221415256974</v>
+        <v>2.787977943744552</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.674346790763656</v>
+        <v>2.474851031229127</v>
       </c>
       <c r="C67">
-        <v>3.902290678629238</v>
+        <v>2.32868674082898</v>
       </c>
       <c r="D67">
-        <v>4.622976918818277</v>
+        <v>2.583252714210554</v>
       </c>
       <c r="E67">
-        <v>2.247035758221351</v>
+        <v>2.424143101177362</v>
       </c>
       <c r="F67">
-        <v>4.311871324720286</v>
+        <v>2.817843686289552</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.733317678205245</v>
+        <v>2.493819417399241</v>
       </c>
       <c r="C68">
-        <v>3.947175117801232</v>
+        <v>2.347841924441471</v>
       </c>
       <c r="D68">
-        <v>4.682973276318839</v>
+        <v>2.61174847926476</v>
       </c>
       <c r="E68">
-        <v>2.257415361245898</v>
+        <v>2.447925836103599</v>
       </c>
       <c r="F68">
-        <v>4.353329012781402</v>
+        <v>2.849611076388046</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.795462800265752</v>
+        <v>2.514060241861609</v>
       </c>
       <c r="C69">
-        <v>3.992740197656682</v>
+        <v>2.368753271169469</v>
       </c>
       <c r="D69">
-        <v>4.745394044208633</v>
+        <v>2.642446260957513</v>
       </c>
       <c r="E69">
-        <v>2.268275275872128</v>
+        <v>2.473944519902066</v>
       </c>
       <c r="F69">
-        <v>4.395658917131705</v>
+        <v>2.883464136728215</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.860739603264854</v>
+        <v>2.535733381925662</v>
       </c>
       <c r="C70">
-        <v>4.038941972322661</v>
+        <v>2.391647032369807</v>
       </c>
       <c r="D70">
-        <v>4.810209604574127</v>
+        <v>2.67555133699557</v>
       </c>
       <c r="E70">
-        <v>2.279647679773673</v>
+        <v>2.502480601744298</v>
       </c>
       <c r="F70">
-        <v>4.43892014807881</v>
+        <v>2.91959593002777</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.929038741166424</v>
+        <v>2.559023477824636</v>
       </c>
       <c r="C71">
-        <v>4.085733201007663</v>
+        <v>2.416773437775858</v>
       </c>
       <c r="D71">
-        <v>4.877335224198125</v>
+        <v>2.711266857228154</v>
       </c>
       <c r="E71">
-        <v>2.291567359360465</v>
+        <v>2.533831643861451</v>
       </c>
       <c r="F71">
-        <v>4.483165735738512</v>
+        <v>2.958203239831618</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.00018971897763</v>
+        <v>2.584142726097139</v>
       </c>
       <c r="C72">
-        <v>4.133063943664614</v>
+        <v>2.444402312727088</v>
       </c>
       <c r="D72">
-        <v>4.94663291124036</v>
+        <v>2.749782187458105</v>
       </c>
       <c r="E72">
-        <v>2.304071971927697</v>
+        <v>2.568295484500018</v>
       </c>
       <c r="F72">
-        <v>4.528442033127701</v>
+        <v>2.999478098064439</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.073972268706532</v>
+        <v>2.611332564176819</v>
       </c>
       <c r="C73">
-        <v>4.180882084880002</v>
+        <v>2.474812983307354</v>
       </c>
       <c r="D73">
-        <v>5.017917948929155</v>
+        <v>2.791257965604772</v>
       </c>
       <c r="E73">
-        <v>2.317202369335775</v>
+        <v>2.606146301114793</v>
       </c>
       <c r="F73">
-        <v>4.574788290611631</v>
+        <v>3.043596924365821</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.150131437378054</v>
+        <v>2.640863381491749</v>
       </c>
       <c r="C74">
-        <v>4.229133771538881</v>
+        <v>2.508277429365808</v>
       </c>
       <c r="D74">
-        <v>5.090969232115427</v>
+        <v>2.835809143893146</v>
       </c>
       <c r="E74">
-        <v>2.33100292597645</v>
+        <v>2.647601915344035</v>
       </c>
       <c r="F74">
-        <v>4.622236411730716</v>
+        <v>3.090706803542582</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.228393717878967</v>
+        <v>2.673030424513226</v>
       </c>
       <c r="C75">
-        <v>4.277763777325821</v>
+        <v>2.545035811115171</v>
       </c>
       <c r="D75">
-        <v>5.165541827760133</v>
+        <v>2.883488382412973</v>
       </c>
       <c r="E75">
-        <v>2.345521862383505</v>
+        <v>2.692786444529479</v>
       </c>
       <c r="F75">
-        <v>4.670810893438461</v>
+        <v>3.140910014094105</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.308481817048966</v>
+        <v>2.708143700310439</v>
       </c>
       <c r="C76">
-        <v>4.326715815895584</v>
+        <v>2.585264813989445</v>
       </c>
       <c r="D76">
-        <v>5.241379759046713</v>
+        <v>2.934272901982099</v>
       </c>
       <c r="E76">
-        <v>2.36081175704043</v>
+        <v>2.741697529887193</v>
       </c>
       <c r="F76">
-        <v>4.720528942930855</v>
+        <v>3.194249339272697</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.39012645408158</v>
+        <v>2.74650910180071</v>
       </c>
       <c r="C77">
-        <v>4.375932816928357</v>
+        <v>2.62904457132135</v>
       </c>
       <c r="D77">
-        <v>5.318227564154702</v>
+        <v>2.988059520266</v>
       </c>
       <c r="E77">
-        <v>2.376929915188655</v>
+        <v>2.794189372386666</v>
       </c>
       <c r="F77">
-        <v>4.771400757826558</v>
+        <v>3.250696758470117</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.47307456704633</v>
+        <v>2.78839874550903</v>
       </c>
       <c r="C78">
-        <v>4.425357190290957</v>
+        <v>2.676332528293276</v>
       </c>
       <c r="D78">
-        <v>5.395839461500795</v>
+        <v>3.044668753314127</v>
       </c>
       <c r="E78">
-        <v>2.393938774833424</v>
+        <v>2.849980556134756</v>
       </c>
       <c r="F78">
-        <v>4.823429947268766</v>
+        <v>3.310148640483395</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.557094098617136</v>
+        <v>2.834012939555455</v>
       </c>
       <c r="C79">
-        <v>4.474931092918694</v>
+        <v>2.726954143303343</v>
       </c>
       <c r="D79">
-        <v>5.473985758010382</v>
+        <v>3.103858397372629</v>
       </c>
       <c r="E79">
-        <v>2.411906372264179</v>
+        <v>2.908687051183945</v>
       </c>
       <c r="F79">
-        <v>4.876614064903269</v>
+        <v>3.372429175977282</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.641976000029993</v>
+        <v>2.883437930864645</v>
       </c>
       <c r="C80">
-        <v>4.524596709408709</v>
+        <v>2.78061635459923</v>
       </c>
       <c r="D80">
-        <v>5.552456617624945</v>
+        <v>3.165344402245974</v>
       </c>
       <c r="E80">
-        <v>2.430906745756722</v>
+        <v>2.969870410318463</v>
       </c>
       <c r="F80">
-        <v>4.930945225310639</v>
+        <v>3.437302313619432</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.727534235822072</v>
+        <v>2.936612485538528</v>
       </c>
       <c r="C81">
-        <v>4.574296549906074</v>
+        <v>2.836941897802412</v>
       </c>
       <c r="D81">
-        <v>5.631063653235938</v>
+        <v>3.228823836692253</v>
       </c>
       <c r="E81">
-        <v>2.451020264362372</v>
+        <v>3.033086583707635</v>
       </c>
       <c r="F81">
-        <v>4.986410769037541</v>
+        <v>3.504489979261755</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.813604521822334</v>
+        <v>2.993316626785838</v>
       </c>
       <c r="C82">
-        <v>4.623973762066337</v>
+        <v>2.89551396409657</v>
       </c>
       <c r="D82">
-        <v>5.709639911420835</v>
+        <v>3.293995927784955</v>
       </c>
       <c r="E82">
-        <v>2.47233387553232</v>
+        <v>3.097923633753191</v>
       </c>
       <c r="F82">
-        <v>5.042993946839221</v>
+        <v>3.573692308761465</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.900042374202722</v>
+        <v>3.053190754994913</v>
       </c>
       <c r="C83">
-        <v>4.673572450407015</v>
+        <v>2.955918360677491</v>
       </c>
       <c r="D83">
-        <v>5.788038808324851</v>
+        <v>3.360578209589296</v>
       </c>
       <c r="E83">
-        <v>2.494941137430063</v>
+        <v>3.164023643711228</v>
       </c>
       <c r="F83">
-        <v>5.10067459553864</v>
+        <v>3.644607305435914</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.98672088719615</v>
+        <v>3.115781294825129</v>
       </c>
       <c r="C84">
-        <v>4.723037992234002</v>
+        <v>3.017775134371282</v>
       </c>
       <c r="D84">
-        <v>5.866132467285239</v>
+        <v>3.428316674467705</v>
       </c>
       <c r="E84">
-        <v>2.518941983562883</v>
+        <v>3.23109033879372</v>
       </c>
       <c r="F84">
-        <v>5.159429782759868</v>
+        <v>3.716946356464687</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.07352850070655</v>
+        <v>3.180597866643058</v>
       </c>
       <c r="C85">
-        <v>4.772317340362302</v>
+        <v>3.080755880147269</v>
       </c>
       <c r="D85">
-        <v>5.943809796689039</v>
+        <v>3.496990501434943</v>
       </c>
       <c r="E85">
-        <v>2.544442048189419</v>
+        <v>3.298886920081598</v>
       </c>
       <c r="F85">
-        <v>5.219234403363589</v>
+        <v>3.790444800036716</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.160366905434617</v>
+        <v>3.247164773515834</v>
       </c>
       <c r="C86">
-        <v>4.821359265112789</v>
+        <v>3.144589094903482</v>
       </c>
       <c r="D86">
-        <v>6.020974478946837</v>
+        <v>3.566412509508784</v>
       </c>
       <c r="E86">
-        <v>2.571551432857768</v>
+        <v>3.367228680663858</v>
       </c>
       <c r="F86">
-        <v>5.280061723780823</v>
+        <v>3.864867562295791</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.247149198796686</v>
+        <v>3.315055952730238</v>
       </c>
       <c r="C87">
-        <v>4.870114663856508</v>
+        <v>3.209057434590815</v>
       </c>
       <c r="D87">
-        <v>6.097543329037882</v>
+        <v>3.63642713494738</v>
       </c>
       <c r="E87">
-        <v>2.600382735000109</v>
+        <v>3.435973894837475</v>
       </c>
       <c r="F87">
-        <v>5.341883761120195</v>
+        <v>3.940010852170183</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.333798191366565</v>
+        <v>3.38391149729085</v>
       </c>
       <c r="C88">
-        <v>4.918536547944604</v>
+        <v>3.273990832849122</v>
       </c>
       <c r="D88">
-        <v>6.173444248156938</v>
+        <v>3.706906829359214</v>
       </c>
       <c r="E88">
-        <v>2.631048621352134</v>
+        <v>3.505014942759787</v>
       </c>
       <c r="F88">
-        <v>5.404671746523282</v>
+        <v>4.015701135932542</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.420245099972322</v>
+        <v>3.453439840531027</v>
       </c>
       <c r="C89">
-        <v>4.966580365089154</v>
+        <v>3.339258262957847</v>
       </c>
       <c r="D89">
-        <v>6.248614894347436</v>
+        <v>3.777748030558346</v>
       </c>
       <c r="E89">
-        <v>2.663657918639746</v>
+        <v>3.574270539953582</v>
       </c>
       <c r="F89">
-        <v>5.468396427804829</v>
+        <v>4.091792509691709</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.506428321231193</v>
+        <v>3.523411437858107</v>
       </c>
       <c r="C90">
-        <v>5.014204170756359</v>
+        <v>3.404759781129256</v>
       </c>
       <c r="D90">
-        <v>6.323001514841318</v>
+        <v>3.848867172631399</v>
       </c>
       <c r="E90">
-        <v>2.698311038243197</v>
+        <v>3.643679424986487</v>
       </c>
       <c r="F90">
-        <v>5.533028365024949</v>
+        <v>4.168163343590633</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.592292492449467</v>
+        <v>3.593648836914045</v>
       </c>
       <c r="C91">
-        <v>5.061368729041209</v>
+        <v>3.470419599991426</v>
       </c>
       <c r="D91">
-        <v>6.396557684718071</v>
+        <v>3.920197074546492</v>
       </c>
       <c r="E91">
-        <v>2.735094503059014</v>
+        <v>3.713195405897658</v>
       </c>
       <c r="F91">
-        <v>5.598538156392736</v>
+        <v>4.244712771149086</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.67778765710848</v>
+        <v>3.66401624944141</v>
       </c>
       <c r="C92">
-        <v>5.108037561089714</v>
+        <v>3.536180417426115</v>
       </c>
       <c r="D92">
-        <v>6.469243392733855</v>
+        <v>3.991683814487635</v>
       </c>
       <c r="E92">
-        <v>2.774074691127386</v>
+        <v>3.782783569970559</v>
       </c>
       <c r="F92">
-        <v>5.664896588865909</v>
+        <v>4.321357362321622</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.762868570690175</v>
+        <v>3.73441019252142</v>
       </c>
       <c r="C93">
-        <v>5.15417698326017</v>
+        <v>3.601998937270089</v>
       </c>
       <c r="D93">
-        <v>6.541024240281514</v>
+        <v>4.063284115638142</v>
       </c>
       <c r="E93">
-        <v>2.815291712243026</v>
+        <v>3.852417428097997</v>
       </c>
       <c r="F93">
-        <v>5.732074744118432</v>
+        <v>4.398028150940695</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.847494173579411</v>
+        <v>3.804751758884061</v>
       </c>
       <c r="C94">
-        <v>5.199756098984794</v>
+        <v>3.667842418899619</v>
       </c>
       <c r="D94">
-        <v>6.6118707849056</v>
+        <v>4.134963205261128</v>
       </c>
       <c r="E94">
-        <v>2.858753827090184</v>
+        <v>3.922076782628015</v>
       </c>
       <c r="F94">
-        <v>5.800044072652931</v>
+        <v>4.474668075425019</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.931627101444849</v>
+        <v>3.874980535793152</v>
       </c>
       <c r="C95">
-        <v>5.24474676317441</v>
+        <v>3.733686055619082</v>
       </c>
       <c r="D95">
-        <v>6.681757958556118</v>
+        <v>4.206693086993664</v>
       </c>
       <c r="E95">
-        <v>2.904433374283449</v>
+        <v>3.991746143329965</v>
       </c>
       <c r="F95">
-        <v>5.868776415661801</v>
+        <v>4.551229828894018</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6.015233286445993</v>
+        <v>3.945049962432133</v>
       </c>
       <c r="C96">
-        <v>5.289123522335156</v>
+        <v>3.799511004335419</v>
       </c>
       <c r="D96">
-        <v>6.750664551459177</v>
+        <v>4.278451161356863</v>
       </c>
       <c r="E96">
-        <v>2.952264878749186</v>
+        <v>4.061413554138508</v>
       </c>
       <c r="F96">
-        <v>5.938244006286117</v>
+        <v>4.627674083417473</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6.098281621344129</v>
+        <v>4.01492384769678</v>
       </c>
       <c r="C97">
-        <v>5.332863536744928</v>
+        <v>3.865302895556886</v>
       </c>
       <c r="D97">
-        <v>6.81857282686023</v>
+        <v>4.350219119076931</v>
       </c>
       <c r="E97">
-        <v>3.002146385559203</v>
+        <v>4.131069711911837</v>
       </c>
       <c r="F97">
-        <v>6.008419453882972</v>
+        <v>4.703968043759447</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6.180743681519848</v>
+        <v>4.084573785722892</v>
       </c>
       <c r="C98">
-        <v>5.375946488334351</v>
+        <v>3.931050733816885</v>
       </c>
       <c r="D98">
-        <v>6.885468159493762</v>
+        <v>4.421982081796663</v>
       </c>
       <c r="E98">
-        <v>3.053943288217148</v>
+        <v>4.200707331975708</v>
       </c>
       <c r="F98">
-        <v>6.079275713049168</v>
+        <v>4.780084258640401</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6.262593488330125</v>
+        <v>4.153977247617557</v>
       </c>
       <c r="C99">
-        <v>5.418354482857411</v>
+        <v>3.996746087871785</v>
       </c>
       <c r="D99">
-        <v>6.951338718429177</v>
+        <v>4.493727917999331</v>
       </c>
       <c r="E99">
-        <v>3.107494531369073</v>
+        <v>4.270320664082078</v>
       </c>
       <c r="F99">
-        <v>6.150786046184503</v>
+        <v>4.855999667919154</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6.343807300012267</v>
+        <v>4.223116174711858</v>
       </c>
       <c r="C100">
-        <v>5.460071938307437</v>
+        <v>4.062382458954379</v>
       </c>
       <c r="D100">
-        <v>7.016175196112817</v>
+        <v>4.565446696285521</v>
       </c>
       <c r="E100">
-        <v>3.162620730397101</v>
+        <v>4.339905127885634</v>
       </c>
       <c r="F100">
-        <v>6.22292396049527</v>
+        <v>4.931694850305671</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6.424363427546979</v>
+        <v>4.291975940448427</v>
       </c>
       <c r="C101">
-        <v>5.501085468826971</v>
+        <v>4.127954819213754</v>
       </c>
       <c r="D101">
-        <v>7.079970576460525</v>
+        <v>4.637130257545871</v>
       </c>
       <c r="E101">
-        <v>3.219132757817641</v>
+        <v>4.409457046734473</v>
       </c>
       <c r="F101">
-        <v>6.295663165579075</v>
+        <v>5.007153402171467</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6.504242075387013</v>
+        <v>4.360544581882808</v>
       </c>
       <c r="C102">
-        <v>5.54138376578974</v>
+        <v>4.193459270201753</v>
       </c>
       <c r="D102">
-        <v>7.142719926683559</v>
+        <v>4.708771878538543</v>
       </c>
       <c r="E102">
-        <v>3.276839760728294</v>
+        <v>4.478973444267567</v>
       </c>
       <c r="F102">
-        <v>6.368977528971884</v>
+        <v>5.082361432016787</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6.583425202960871</v>
+        <v>4.428812228154487</v>
       </c>
       <c r="C103">
-        <v>5.580957479127751</v>
+        <v>4.258892777502981</v>
       </c>
       <c r="D103">
-        <v>7.204420210367624</v>
+        <v>4.780366001991104</v>
       </c>
       <c r="E103">
-        <v>3.335556066314247</v>
+        <v>4.548451890242366</v>
       </c>
       <c r="F103">
-        <v>6.442841026332455</v>
+        <v>5.157307154361925</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6.661896401305916</v>
+        <v>4.496770674000986</v>
       </c>
       <c r="C104">
-        <v>5.619799101038296</v>
+        <v>4.324252973705578</v>
       </c>
       <c r="D104">
-        <v>7.26507012203615</v>
+        <v>4.8519080226573</v>
       </c>
       <c r="E104">
-        <v>3.395106390822583</v>
+        <v>4.617890384481437</v>
       </c>
       <c r="F104">
-        <v>6.517227698926803</v>
+        <v>5.231980567972976</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6.73964078140397</v>
+        <v>4.56441305765873</v>
       </c>
       <c r="C105">
-        <v>5.65790284954173</v>
+        <v>4.389538008881105</v>
       </c>
       <c r="D105">
-        <v>7.324669938559478</v>
+        <v>4.923394117862444</v>
       </c>
       <c r="E105">
-        <v>3.455329348837556</v>
+        <v>4.68728726785883</v>
       </c>
       <c r="F105">
-        <v>6.592111623065033</v>
+        <v>5.306373186595219</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6.81664487310056</v>
+        <v>4.631733609382509</v>
       </c>
       <c r="C106">
-        <v>5.695264552842752</v>
+        <v>4.454746435428308</v>
       </c>
       <c r="D106">
-        <v>7.383221384103899</v>
+        <v>4.994821110468377</v>
       </c>
       <c r="E106">
-        <v>3.516079326762559</v>
+        <v>4.756641153781753</v>
       </c>
       <c r="F106">
-        <v>6.667466883914038</v>
+        <v>5.380477817702889</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6.892896533839832</v>
+        <v>4.698727470120343</v>
       </c>
       <c r="C107">
-        <v>5.731881537254181</v>
+        <v>4.519877120913448</v>
       </c>
       <c r="D107">
-        <v>7.440727506566183</v>
+        <v>5.066186359198183</v>
       </c>
       <c r="E107">
-        <v>3.57722712841513</v>
+        <v>4.825950875491674</v>
       </c>
       <c r="F107">
-        <v>6.743267556210475</v>
+        <v>5.45428838450698</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6.968384864987353</v>
+        <v>4.765390550064446</v>
       </c>
       <c r="C108">
-        <v>5.767752519275489</v>
+        <v>4.584929180649727</v>
       </c>
       <c r="D108">
-        <v>7.497192565048385</v>
+        <v>5.13748767045566</v>
       </c>
       <c r="E108">
-        <v>3.638659629567744</v>
+        <v>4.895215445377112</v>
       </c>
       <c r="F108">
-        <v>6.819487695362731</v>
+        <v>5.527799776310462</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7.043100135330017</v>
+        <v>4.831719410259149</v>
       </c>
       <c r="C109">
-        <v>5.802877501907595</v>
+        <v>4.649901926130923</v>
       </c>
       <c r="D109">
-        <v>7.5526219266507</v>
+        <v>5.208723226406026</v>
       </c>
       <c r="E109">
-        <v>3.700278824673982</v>
+        <v>4.964434022785232</v>
       </c>
       <c r="F109">
-        <v>6.896101337862046</v>
+        <v>5.601007723712169</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7.117033709912005</v>
+        <v>4.897711171028072</v>
       </c>
       <c r="C110">
-        <v>5.837257675332337</v>
+        <v>4.714794824578734</v>
       </c>
       <c r="D110">
-        <v>7.607021972200637</v>
+        <v>5.279891527216027</v>
       </c>
       <c r="E110">
-        <v>3.762000503675358</v>
+        <v>5.033605888255226</v>
       </c>
       <c r="F110">
-        <v>6.973082510231731</v>
+        <v>5.673908695163748</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.19017798417947</v>
+        <v>4.963363442154964</v>
       </c>
       <c r="C111">
-        <v>5.870895321344702</v>
+        <v>4.779607466532618</v>
       </c>
       <c r="D111">
-        <v>7.660400006261462</v>
+        <v>5.350991341995584</v>
       </c>
       <c r="E111">
-        <v>3.823752764775838</v>
+        <v>5.10273042408723</v>
       </c>
       <c r="F111">
-        <v>7.050405244879943</v>
+        <v>5.746499808662535</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.262526322752763</v>
+        <v>5.028674264835803</v>
       </c>
       <c r="C112">
-        <v>5.903793722875227</v>
+        <v>4.84433954215497</v>
       </c>
       <c r="D112">
-        <v>7.712764174520575</v>
+        <v>5.422021669207923</v>
       </c>
       <c r="E112">
-        <v>3.885474515611189</v>
+        <v>5.171807098976614</v>
       </c>
       <c r="F112">
-        <v>7.128043602598253</v>
+        <v>5.818778757591243</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.334073002228317</v>
+        <v>5.093642062468298</v>
       </c>
       <c r="C113">
-        <v>5.935957077801784</v>
+        <v>4.908990822946638</v>
       </c>
       <c r="D113">
-        <v>7.764123388785849</v>
+        <v>5.492981705552074</v>
       </c>
       <c r="E113">
-        <v>3.947114031527057</v>
+        <v>5.240835455304322</v>
       </c>
       <c r="F113">
-        <v>7.205971701852592</v>
+        <v>5.89074374727017</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7.40481315756332</v>
+        <v>5.158265600820766</v>
       </c>
       <c r="C114">
-        <v>5.967390417506058</v>
+        <v>4.973561146256498</v>
       </c>
       <c r="D114">
-        <v>7.814487256103622</v>
+        <v>5.563870819512757</v>
       </c>
       <c r="E114">
-        <v>4.008627622745018</v>
+        <v>5.309815098294063</v>
       </c>
       <c r="F114">
-        <v>7.284163752947667</v>
+        <v>5.962393440312209</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7.474742733070224</v>
+        <v>5.222543954598473</v>
       </c>
       <c r="C115">
-        <v>5.998099529998829</v>
+        <v>5.03805040274889</v>
       </c>
       <c r="D115">
-        <v>7.863866012304611</v>
+        <v>5.634688528147847</v>
       </c>
       <c r="E115">
-        <v>4.069978451191496</v>
+        <v>5.37874568766819</v>
       </c>
       <c r="F115">
-        <v>7.362594097363855</v>
+        <v>6.033726908367235</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7.543858431919493</v>
+        <v>5.286476479039801</v>
       </c>
       <c r="C116">
-        <v>6.028090887394376</v>
+        <v>5.102458526663858</v>
       </c>
       <c r="D116">
-        <v>7.912270463951534</v>
+        <v>5.705434477661247</v>
       </c>
       <c r="E116">
-        <v>4.131135501110847</v>
+        <v>5.447626930993859</v>
       </c>
       <c r="F116">
-        <v>7.44123725034719</v>
+        <v>6.104743590385576</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7.612157672893271</v>
+        <v>5.350062784401588</v>
       </c>
       <c r="C117">
-        <v>6.057371577922908</v>
+        <v>5.166785488486656</v>
       </c>
       <c r="D117">
-        <v>7.959711926718414</v>
+        <v>5.776108427629735</v>
       </c>
       <c r="E117">
-        <v>4.192072687428776</v>
+        <v>5.516458578020933</v>
       </c>
       <c r="F117">
-        <v>7.52006794632831</v>
+        <v>6.175443257488804</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7.679638550404977</v>
+        <v>5.413302712664804</v>
       </c>
       <c r="C118">
-        <v>6.085949241658096</v>
+        <v>5.231031288959585</v>
       </c>
       <c r="D118">
-        <v>8.006202172400547</v>
+        <v>5.846710237776567</v>
       </c>
       <c r="E118">
-        <v>4.252768088284371</v>
+        <v>5.585240416071026</v>
       </c>
       <c r="F118">
-        <v>7.599061184686951</v>
+        <v>6.245825981829541</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7.746299786272168</v>
+        <v>5.476196320055243</v>
       </c>
       <c r="C119">
-        <v>6.113832010754993</v>
+        <v>5.295195954146896</v>
       </c>
       <c r="D119">
-        <v>8.051753377664982</v>
+        <v>5.917239856447975</v>
       </c>
       <c r="E119">
-        <v>4.313203292774572</v>
+        <v>5.653972265586652</v>
       </c>
       <c r="F119">
-        <v>7.678192276911445</v>
+        <v>6.315892108524287</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7.812140704537805</v>
+        <v>5.538743860279148</v>
       </c>
       <c r="C120">
-        <v>6.141028453102487</v>
+        <v>5.359279531204641</v>
       </c>
       <c r="D120">
-        <v>8.09637807754514</v>
+        <v>5.987697311057367</v>
       </c>
       <c r="E120">
-        <v>4.373362851759475</v>
+        <v>5.722653976853877</v>
       </c>
       <c r="F120">
-        <v>7.757436893398372</v>
+        <v>6.385642229621674</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7.877161189073348</v>
+        <v>5.600945769011222</v>
       </c>
       <c r="C121">
-        <v>6.167547520482172</v>
+        <v>5.42328208558594</v>
       </c>
       <c r="D121">
-        <v>8.140089122313153</v>
+        <v>6.058082698518976</v>
       </c>
       <c r="E121">
-        <v>4.433233817692077</v>
+        <v>5.791285427341058</v>
       </c>
       <c r="F121">
-        <v>7.836771108816757</v>
+        <v>6.455077161332808</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7.941361648722667</v>
+        <v>5.662802649957036</v>
       </c>
       <c r="C122">
-        <v>6.193398499619829</v>
+        <v>5.487203696360077</v>
       </c>
       <c r="D122">
-        <v>8.182899635529465</v>
+        <v>6.128396178945648</v>
       </c>
       <c r="E122">
-        <v>4.492805358234079</v>
+        <v>5.859866518503483</v>
       </c>
       <c r="F122">
-        <v>7.916171445984546</v>
+        <v>6.524197924221525</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8.00474298857656</v>
+        <v>5.724315261707707</v>
       </c>
       <c r="C123">
-        <v>6.218590966866897</v>
+        <v>5.551044456530682</v>
       </c>
       <c r="D123">
-        <v>8.22482297576085</v>
+        <v>6.198637967292042</v>
       </c>
       <c r="E123">
-        <v>4.55206843150774</v>
+        <v>5.928397174705723</v>
       </c>
       <c r="F123">
-        <v>7.995614917381288</v>
+        <v>6.59300572521059</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8.067306577688194</v>
+        <v>5.785484506097304</v>
       </c>
       <c r="C124">
-        <v>6.243134746108517</v>
+        <v>5.614804470176389</v>
       </c>
       <c r="D124">
-        <v>8.265872702519594</v>
+        <v>6.268808328878974</v>
       </c>
       <c r="E124">
-        <v>4.61101551379684</v>
+        <v>5.996877340867043</v>
       </c>
       <c r="F124">
-        <v>8.075079063690895</v>
+        <v>6.661501941361783</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8.129054217627974</v>
+        <v>5.84631141785194</v>
       </c>
       <c r="C125">
-        <v>6.267039869713662</v>
+        <v>5.678483850442815</v>
       </c>
       <c r="D125">
-        <v>8.306062537113364</v>
+        <v>6.338907575917792</v>
       </c>
       <c r="E125">
-        <v>4.669640371758542</v>
+        <v>6.06530698066004</v>
       </c>
       <c r="F125">
-        <v>8.154541989697556</v>
+        <v>6.729688105050434</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8.189988119754707</v>
+        <v>5.906797154828618</v>
       </c>
       <c r="C126">
-        <v>6.290316542383967</v>
+        <v>5.742082719735721</v>
       </c>
       <c r="D126">
-        <v>8.345406340687822</v>
+        <v>6.408936060770215</v>
       </c>
       <c r="E126">
-        <v>4.727937871705888</v>
+        <v>6.133686074935065</v>
       </c>
       <c r="F126">
-        <v>8.233982395805475</v>
+        <v>6.797565889363217</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>8.250110876843333</v>
+        <v>5.96694298895602</v>
       </c>
       <c r="C127">
-        <v>6.312975107823794</v>
+        <v>5.805601207430354</v>
       </c>
       <c r="D127">
-        <v>8.383918065397499</v>
+        <v>6.47889417400968</v>
       </c>
       <c r="E127">
-        <v>4.785903819430529</v>
+        <v>6.202014620429736</v>
       </c>
       <c r="F127">
-        <v>8.313379604800778</v>
+        <v>6.865137094587795</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>8.30942543705652</v>
+        <v>6.026750298455332</v>
       </c>
       <c r="C128">
-        <v>6.335026017704928</v>
+        <v>5.869039449109894</v>
       </c>
       <c r="D128">
-        <v>8.421611756191053</v>
+        <v>6.548782339896171</v>
       </c>
       <c r="E128">
-        <v>4.843534825349944</v>
+        <v>6.270292628607323</v>
       </c>
       <c r="F128">
-        <v>8.392713587442218</v>
+        <v>6.932403641034719</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>8.367935083760734</v>
+        <v>6.086220558025977</v>
       </c>
       <c r="C129">
-        <v>6.356479805026773</v>
+        <v>5.932397585834031</v>
       </c>
       <c r="D129">
-        <v>8.458501490948231</v>
+        <v>6.618601013054759</v>
       </c>
       <c r="E129">
-        <v>4.900828190868429</v>
+        <v>6.338520124491781</v>
       </c>
       <c r="F129">
-        <v>8.471964982935411</v>
+        <v>6.999367550678893</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8.425643411263062</v>
+        <v>6.145355334813049</v>
       </c>
       <c r="C130">
-        <v>6.377347054397678</v>
+        <v>5.995675763557998</v>
       </c>
       <c r="D130">
-        <v>8.494601396704695</v>
+        <v>6.688350675698775</v>
       </c>
       <c r="E130">
-        <v>4.957781813615355</v>
+        <v>6.406697145774716</v>
       </c>
       <c r="F130">
-        <v>8.551115123116769</v>
+        <v>7.066030947884141</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8.482554304088339</v>
+        <v>6.204156275823363</v>
       </c>
       <c r="C131">
-        <v>6.397638384944764</v>
+        <v>6.058874132271485</v>
       </c>
       <c r="D131">
-        <v>8.529925588881829</v>
+        <v>6.758031835576296</v>
       </c>
       <c r="E131">
-        <v>5.014394110011691</v>
+        <v>6.474823741942149</v>
       </c>
       <c r="F131">
-        <v>8.630146024972071</v>
+        <v>7.132396042775313</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8.538671920030735</v>
+        <v>6.262625108898979</v>
       </c>
       <c r="C132">
-        <v>6.417364412947925</v>
+        <v>6.121992845986607</v>
       </c>
       <c r="D132">
-        <v>8.564488187870822</v>
+        <v>6.827645023051232</v>
       </c>
       <c r="E132">
-        <v>5.070663938028865</v>
+        <v>6.542899973378603</v>
       </c>
       <c r="F132">
-        <v>8.709040436369161</v>
+        <v>7.19846512698998</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8.594000657571911</v>
+        <v>6.320763629182526</v>
       </c>
       <c r="C133">
-        <v>6.436535753401541</v>
+        <v>6.185032062039792</v>
       </c>
       <c r="D133">
-        <v>8.598303268047717</v>
+        <v>6.897190789638387</v>
       </c>
       <c r="E133">
-        <v>5.126590532049534</v>
+        <v>6.610925910583147</v>
       </c>
       <c r="F133">
-        <v>8.787781792679521</v>
+        <v>7.264240565028034</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>8.648545167634412</v>
+        <v>6.378573700996088</v>
       </c>
       <c r="C134">
-        <v>6.455162980793578</v>
+        <v>6.247991940719416</v>
       </c>
       <c r="D134">
-        <v>8.631384865400552</v>
+        <v>6.966669706025185</v>
       </c>
       <c r="E134">
-        <v>5.182173476593915</v>
+        <v>6.678901633497861</v>
       </c>
       <c r="F134">
-        <v>8.866354266235092</v>
+        <v>7.329724785707191</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8.702310288439694</v>
+        <v>6.436057246676291</v>
       </c>
       <c r="C135">
-        <v>6.473256630571109</v>
+        <v>6.310872644977009</v>
       </c>
       <c r="D135">
-        <v>8.6637469393887</v>
+        <v>7.036082360081906</v>
       </c>
       <c r="E135">
-        <v>5.237412630248941</v>
+        <v>6.746827230868048</v>
       </c>
       <c r="F135">
-        <v>8.944742725862667</v>
+        <v>7.394920277831724</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8.755301075055913</v>
+        <v>6.49321624557164</v>
       </c>
       <c r="C136">
-        <v>6.49082717431308</v>
+        <v>6.373674340098844</v>
       </c>
       <c r="D136">
-        <v>8.695403380808932</v>
+        <v>7.105429355464367</v>
       </c>
       <c r="E136">
-        <v>5.292308125573905</v>
+        <v>6.814702799638493</v>
       </c>
       <c r="F136">
-        <v>9.022932762942439</v>
+        <v>7.459829582723126</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>8.807522767224862</v>
+        <v>6.550052727097709</v>
       </c>
       <c r="C137">
-        <v>6.507885007581399</v>
+        <v>6.436397193389467</v>
       </c>
       <c r="D137">
-        <v>8.726367974358938</v>
+        <v>7.17471131018683</v>
       </c>
       <c r="E137">
-        <v>5.346860323202709</v>
+        <v>6.882528444409265</v>
       </c>
       <c r="F137">
-        <v>9.100910668586225</v>
+        <v>7.524455288881573</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>8.858980754046765</v>
+        <v>6.6065687666805</v>
       </c>
       <c r="C138">
-        <v>6.524440440691027</v>
+        <v>6.499041374021857</v>
       </c>
       <c r="D138">
-        <v>8.756654411201367</v>
+        <v>7.243928855114688</v>
       </c>
       <c r="E138">
-        <v>5.401069778915032</v>
+        <v>6.950304276925666</v>
       </c>
       <c r="F138">
-        <v>9.178663431417583</v>
+        <v>7.588800028210064</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>8.909680612347897</v>
+        <v>6.662766482901638</v>
       </c>
       <c r="C139">
-        <v>6.540503681037382</v>
+        <v>6.561607052815825</v>
       </c>
       <c r="D139">
-        <v>8.786276253821862</v>
+        <v>7.313082632914551</v>
       </c>
       <c r="E139">
-        <v>5.454937225952772</v>
+        <v>7.018030415505872</v>
       </c>
       <c r="F139">
-        <v>9.256178731994003</v>
+        <v>7.652866469070503</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>8.959628029324929</v>
+        <v>6.718648031040349</v>
       </c>
       <c r="C140">
-        <v>6.556084831043767</v>
+        <v>6.624094402011561</v>
       </c>
       <c r="D140">
-        <v>8.815246948492781</v>
+        <v>7.382173296996584</v>
       </c>
       <c r="E140">
-        <v>5.508463552433522</v>
+        <v>7.085706984746937</v>
       </c>
       <c r="F140">
-        <v>9.333444916658889</v>
+        <v>7.716657313988362</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>9.008828845216025</v>
+        <v>6.774215602856789</v>
       </c>
       <c r="C141">
-        <v>6.571193872739914</v>
+        <v>6.68650359515498</v>
       </c>
       <c r="D141">
-        <v>8.843579795669596</v>
+        <v>7.451201510309204</v>
       </c>
       <c r="E141">
-        <v>5.561649778375354</v>
+        <v>7.153334114738216</v>
       </c>
       <c r="F141">
-        <v>9.410451002568017</v>
+        <v>7.780175294284023</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>9.057289007427231</v>
+        <v>6.829471419756994</v>
       </c>
       <c r="C142">
-        <v>6.585840664126294</v>
+        <v>6.748834806914202</v>
       </c>
       <c r="D142">
-        <v>8.871287959563213</v>
+        <v>7.520167944540821</v>
       </c>
       <c r="E142">
-        <v>5.614497047227483</v>
+        <v>7.220911941315656</v>
       </c>
       <c r="F142">
-        <v>9.487186641855219</v>
+        <v>7.843423166197575</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>9.105014570499238</v>
+        <v>6.884417732848398</v>
       </c>
       <c r="C143">
-        <v>6.600034932783184</v>
+        <v>6.811088212930012</v>
       </c>
       <c r="D143">
-        <v>8.898384444796228</v>
+        <v>7.58907327922693</v>
       </c>
       <c r="E143">
-        <v>5.667006611541361</v>
+        <v>7.288440604852251</v>
       </c>
       <c r="F143">
-        <v>9.563642124081268</v>
+        <v>7.906403708263837</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>9.15201169217128</v>
+        <v>6.939056817199308</v>
       </c>
       <c r="C144">
-        <v>6.613786265113369</v>
+        <v>6.87326398970281</v>
       </c>
       <c r="D144">
-        <v>8.924882103520041</v>
+        <v>7.657918200845377</v>
       </c>
       <c r="E144">
-        <v>5.719179817115593</v>
+        <v>7.355920250875625</v>
       </c>
       <c r="F144">
-        <v>9.63980834292944</v>
+        <v>7.969119716703697</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>9.198286603928084</v>
+        <v>6.993390971169771</v>
       </c>
       <c r="C145">
-        <v>6.627104108269788</v>
+        <v>6.935362314483248</v>
       </c>
       <c r="D145">
-        <v>8.950793616857158</v>
+        <v>7.726703402146051</v>
       </c>
       <c r="E145">
-        <v>5.771018097745258</v>
+        <v>7.423351028830858</v>
       </c>
       <c r="F145">
-        <v>9.715676785879888</v>
+        <v>8.031574003545325</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>9.243845626825042</v>
+        <v>7.047422512194127</v>
       </c>
       <c r="C146">
-        <v>6.639997759008301</v>
+        <v>6.997383365148695</v>
       </c>
       <c r="D146">
-        <v>8.976131501053992</v>
+        <v>7.795429581484351</v>
       </c>
       <c r="E146">
-        <v>5.822522962889392</v>
+        <v>7.490733092554987</v>
       </c>
       <c r="F146">
-        <v>9.791239514444607</v>
+        <v>8.09376939335295</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9.288695134611141</v>
+        <v>7.101153775223513</v>
       </c>
       <c r="C147">
-        <v>6.652476364881513</v>
+        <v>7.059327320131547</v>
       </c>
       <c r="D147">
-        <v>9.000908092273409</v>
+        <v>7.864097442088161</v>
       </c>
       <c r="E147">
-        <v>5.873695990367092</v>
+        <v>7.558066599369366</v>
       </c>
       <c r="F147">
-        <v>9.866489145921292</v>
+        <v>8.155708720164949</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9.332841568388798</v>
+        <v>7.154587110035179</v>
       </c>
       <c r="C148">
-        <v>6.664548918186839</v>
+        <v>7.121194358341001</v>
       </c>
       <c r="D148">
-        <v>9.025135552317243</v>
+        <v>7.9327076915715</v>
       </c>
       <c r="E148">
-        <v>5.924538818655879</v>
+        <v>7.625351710281548</v>
       </c>
       <c r="F148">
-        <v>9.941418833843736</v>
+        <v>8.217394826040064</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>9.376291419355526</v>
+        <v>7.207724878778476</v>
       </c>
       <c r="C149">
-        <v>6.676224253911858</v>
+        <v>7.182984658999724</v>
       </c>
       <c r="D149">
-        <v>9.04882585636542</v>
+        <v>8.001261041469114</v>
       </c>
       <c r="E149">
-        <v>5.975053133826748</v>
+        <v>7.692588589328816</v>
       </c>
       <c r="F149">
-        <v>10.01602224716133</v>
+        <v>8.278830557772693</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9.419051214700939</v>
+        <v>7.260569454824113</v>
       </c>
       <c r="C150">
-        <v>6.68751104955454</v>
+        <v>7.244698401738402</v>
       </c>
       <c r="D150">
-        <v>9.071990797899852</v>
+        <v>8.069758206228382</v>
       </c>
       <c r="E150">
-        <v>6.025240683283256</v>
+        <v>7.759777403710456</v>
       </c>
       <c r="F150">
-        <v>10.09029355073524</v>
+        <v>8.340018765484089</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>9.461127531184765</v>
+        <v>7.313123219392634</v>
       </c>
       <c r="C151">
-        <v>6.698417819968812</v>
+        <v>7.30633576626719</v>
       </c>
       <c r="D151">
-        <v>9.094641979474973</v>
+        <v>8.138199903759398</v>
       </c>
       <c r="E151">
-        <v>6.075103231733651</v>
+        <v>7.82691832317571</v>
       </c>
       <c r="F151">
-        <v>10.16422738539125</v>
+        <v>8.400962300584014</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>9.502526960844387</v>
+        <v>7.365388561458497</v>
       </c>
       <c r="C152">
-        <v>6.708952920489499</v>
+        <v>7.367896932582642</v>
       </c>
       <c r="D152">
-        <v>9.11679081649112</v>
+        <v>8.206586853469069</v>
       </c>
       <c r="E152">
-        <v>6.124642609723158</v>
+        <v>7.894011520249403</v>
       </c>
       <c r="F152">
-        <v>10.23781884919426</v>
+        <v>8.461664013432831</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>9.543256129892494</v>
+        <v>7.417367874417753</v>
       </c>
       <c r="C153">
-        <v>6.719124542661161</v>
+        <v>7.429382080733964</v>
       </c>
       <c r="D153">
-        <v>9.138448533440512</v>
+        <v>8.274919777318624</v>
       </c>
       <c r="E153">
-        <v>6.173860658361164</v>
+        <v>7.961057169583563</v>
       </c>
       <c r="F153">
-        <v>10.31106347825496</v>
+        <v>8.522126752547068</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>9.583321675191103</v>
+        <v>7.469063555947668</v>
       </c>
       <c r="C154">
-        <v>6.728940716210562</v>
+        <v>7.490791390811223</v>
       </c>
       <c r="D154">
-        <v>9.159626164136979</v>
+        <v>8.34319939869618</v>
       </c>
       <c r="E154">
-        <v>6.222759255309128</v>
+        <v>8.028055448229724</v>
       </c>
       <c r="F154">
-        <v>10.38395722751441</v>
+        <v>8.582353362314477</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9.622730245512015</v>
+        <v>7.520478005294257</v>
       </c>
       <c r="C155">
-        <v>6.738409308270535</v>
+        <v>7.552125042995071</v>
       </c>
       <c r="D155">
-        <v>9.180334540043271</v>
+        <v>8.411426441956772</v>
       </c>
       <c r="E155">
-        <v>6.271340313947661</v>
+        <v>8.095006535056099</v>
       </c>
       <c r="F155">
-        <v>10.4564964520509</v>
+        <v>8.642346682008974</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9.661488498388298</v>
+        <v>7.571613622861458</v>
       </c>
       <c r="C156">
-        <v>6.747538022884125</v>
+        <v>7.613383217332133</v>
       </c>
       <c r="D156">
-        <v>9.200584310178728</v>
+        <v>8.479601633000071</v>
       </c>
       <c r="E156">
-        <v>6.319605756450615</v>
+        <v>8.161910610908453</v>
       </c>
       <c r="F156">
-        <v>10.52867788914748</v>
+        <v>8.702109544490659</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>9.699603085580113</v>
+        <v>7.622472808187759</v>
       </c>
       <c r="C157">
-        <v>6.756334403419088</v>
+        <v>7.67456609388856</v>
       </c>
       <c r="D157">
-        <v>9.220385928068541</v>
+        <v>8.547725697673533</v>
       </c>
       <c r="E157">
-        <v>6.367557538623018</v>
+        <v>8.228767858227751</v>
       </c>
       <c r="F157">
-        <v>10.60049864057281</v>
+        <v>8.761644774591451</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>9.737080664381525</v>
+        <v>7.673057959174325</v>
       </c>
       <c r="C158">
-        <v>6.764805831200797</v>
+        <v>7.735673852536802</v>
       </c>
       <c r="D158">
-        <v>9.239749634249648</v>
+        <v>8.615799362832009</v>
       </c>
       <c r="E158">
-        <v>6.415197624846063</v>
+        <v>8.295578461047203</v>
       </c>
       <c r="F158">
-        <v>10.67195615521906</v>
+        <v>8.820955188591888</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>9.773927874123865</v>
+        <v>7.723371470814618</v>
       </c>
       <c r="C159">
-        <v>6.772959528586423</v>
+        <v>7.796706673054636</v>
       </c>
       <c r="D159">
-        <v>9.258685499362734</v>
+        <v>8.683823354918598</v>
       </c>
       <c r="E159">
-        <v>6.462527999117417</v>
+        <v>8.362342604758052</v>
       </c>
       <c r="F159">
-        <v>10.74304821240714</v>
+        <v>8.880043592739906</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>9.810151347366727</v>
+        <v>7.773415733953549</v>
       </c>
       <c r="C160">
-        <v>6.780802559677797</v>
+        <v>7.857664734983643</v>
       </c>
       <c r="D160">
-        <v>9.277203399864232</v>
+        <v>8.751798400609923</v>
       </c>
       <c r="E160">
-        <v>6.509550656123356</v>
+        <v>8.429060476049756</v>
       </c>
       <c r="F160">
-        <v>10.81377290570737</v>
+        <v>8.938912782552185</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>9.845757699773936</v>
+        <v>7.823193134802422</v>
       </c>
       <c r="C161">
-        <v>6.788341831085376</v>
+        <v>7.918548217681336</v>
       </c>
       <c r="D161">
-        <v>9.29531299746581</v>
+        <v>8.819725225941573</v>
       </c>
       <c r="E161">
-        <v>6.556267600930503</v>
+        <v>8.49573226275086</v>
       </c>
       <c r="F161">
-        <v>10.88412862720441</v>
+        <v>8.997565542375519</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9.880753523672364</v>
+        <v>7.872706053264458</v>
       </c>
       <c r="C162">
-        <v>6.795584091874376</v>
+        <v>7.979357300237831</v>
       </c>
       <c r="D162">
-        <v>9.313023787633885</v>
+        <v>8.887604556521483</v>
       </c>
       <c r="E162">
-        <v>6.60268084877749</v>
+        <v>8.562358153721458</v>
       </c>
       <c r="F162">
-        <v>10.9541140523599</v>
+        <v>9.056004643273869</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>9.91514539408535</v>
+        <v>7.921956862943794</v>
       </c>
       <c r="C163">
-        <v>6.802535942395935</v>
+        <v>8.040092161468849</v>
       </c>
       <c r="D163">
-        <v>9.330345075525221</v>
+        <v>8.955437117190669</v>
       </c>
       <c r="E163">
-        <v>6.648792417931126</v>
+        <v>8.628938338772072</v>
       </c>
       <c r="F163">
-        <v>11.02372812541319</v>
+        <v>9.11423284386094</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>9.948939852712304</v>
+        <v>7.970947929521514</v>
       </c>
       <c r="C164">
-        <v>6.809203823428818</v>
+        <v>8.10075297991145</v>
       </c>
       <c r="D164">
-        <v>9.347285963158619</v>
+        <v>9.023223631726154</v>
       </c>
       <c r="E164">
-        <v>6.694604337959764</v>
+        <v>8.695473008514071</v>
       </c>
       <c r="F164">
-        <v>11.09297004532056</v>
+        <v>9.172252888958937</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>9.982143417725233</v>
+        <v>8.019681610748952</v>
       </c>
       <c r="C165">
-        <v>6.8155940298582</v>
+        <v>8.161339933749403</v>
       </c>
       <c r="D165">
-        <v>9.363855381859686</v>
+        <v>9.090964823039528</v>
       </c>
       <c r="E165">
-        <v>6.740118636504205</v>
+        <v>8.761962354334004</v>
       </c>
       <c r="F165">
-        <v>11.16183925224306</v>
+        <v>9.230067507452999</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10.01476257086361</v>
+        <v>8.068160255137274</v>
       </c>
       <c r="C166">
-        <v>6.821712711094258</v>
+        <v>8.221853200865128</v>
       </c>
       <c r="D166">
-        <v>9.38006207798848</v>
+        <v>9.158661412506923</v>
       </c>
       <c r="E166">
-        <v>6.78533734787409</v>
+        <v>8.828406568222732</v>
       </c>
       <c r="F166">
-        <v>11.23033541457757</v>
+        <v>9.287679416257605</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.04680375998248</v>
+        <v>8.116386201823163</v>
       </c>
       <c r="C167">
-        <v>6.827565863513447</v>
+        <v>8.282292958740539</v>
       </c>
       <c r="D167">
-        <v>9.395914608593802</v>
+        <v>9.226314120428095</v>
       </c>
       <c r="E167">
-        <v>6.830262507193993</v>
+        <v>8.894805842778599</v>
       </c>
       <c r="F167">
-        <v>11.29845841650844</v>
+        <v>9.345091313671658</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.07827339755464</v>
+        <v>8.164361779616932</v>
       </c>
       <c r="C168">
-        <v>6.833159348997071</v>
+        <v>8.342659384519068</v>
       </c>
       <c r="D168">
-        <v>9.411421356509042</v>
+        <v>9.293923665311128</v>
       </c>
       <c r="E168">
-        <v>6.874896149047711</v>
+        <v>8.96116037103787</v>
       </c>
       <c r="F168">
-        <v>11.36620834608964</v>
+        <v>9.402305884037879</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.10917785250366</v>
+        <v>8.212089306670716</v>
       </c>
       <c r="C169">
-        <v>6.838498881933055</v>
+        <v>8.402952654917645</v>
       </c>
       <c r="D169">
-        <v>9.426590525321947</v>
+        <v>9.361490764272904</v>
       </c>
       <c r="E169">
-        <v>6.919240309503704</v>
+        <v>9.0274703464921</v>
       </c>
       <c r="F169">
-        <v>11.43358548383621</v>
+        <v>9.459325795606325</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.13952345710274</v>
+        <v>8.259571089932834</v>
       </c>
       <c r="C170">
-        <v>6.84359003962902</v>
+        <v>8.46317294626777</v>
       </c>
       <c r="D170">
-        <v>9.441430139407363</v>
+        <v>9.429016132557265</v>
       </c>
       <c r="E170">
-        <v>6.96329702110175</v>
+        <v>9.093735962923528</v>
       </c>
       <c r="F170">
-        <v>11.50059029181544</v>
+        <v>9.516153698862878</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.16931649514507</v>
+        <v>8.30680942456682</v>
       </c>
       <c r="C171">
-        <v>6.848438265010882</v>
+        <v>8.523320434468337</v>
       </c>
       <c r="D171">
-        <v>9.455948055768481</v>
+        <v>9.496500483639645</v>
       </c>
       <c r="E171">
-        <v>7.007068315659168</v>
+        <v>9.159957414436414</v>
       </c>
       <c r="F171">
-        <v>11.56722340322426</v>
+        <v>9.572792229171361</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10.19856320812396</v>
+        <v>8.353806594096504</v>
       </c>
       <c r="C172">
-        <v>6.853048864731266</v>
+        <v>8.583395294981749</v>
       </c>
       <c r="D172">
-        <v>9.470151958557356</v>
+        <v>9.563944529124958</v>
       </c>
       <c r="E172">
-        <v>7.050556220243824</v>
+        <v>9.226134895295512</v>
       </c>
       <c r="F172">
-        <v>11.63348561243921</v>
+        <v>9.629244003338373</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.22726978997463</v>
+        <v>8.400564868923206</v>
       </c>
       <c r="C173">
-        <v>6.857427015042534</v>
+        <v>8.643397702828905</v>
       </c>
       <c r="D173">
-        <v>9.484049359258128</v>
+        <v>9.631348978520865</v>
       </c>
       <c r="E173">
-        <v>7.09376275869429</v>
+        <v>9.292268599968907</v>
       </c>
       <c r="F173">
-        <v>11.69937786552456</v>
+        <v>9.685511621586679</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.25544238463203</v>
+        <v>8.447086506617289</v>
       </c>
       <c r="C174">
-        <v>6.861577762800851</v>
+        <v>8.703327832560417</v>
       </c>
       <c r="D174">
-        <v>9.497647609739097</v>
+        <v>9.698714539363197</v>
       </c>
       <c r="E174">
-        <v>7.136689949919478</v>
+        <v>9.358358722972769</v>
       </c>
       <c r="F174">
-        <v>11.76490125118237</v>
+        <v>9.741597666442548</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.28308708919468</v>
+        <v>8.493373752590507</v>
       </c>
       <c r="C175">
-        <v>6.865506027864384</v>
+        <v>8.763185858275016</v>
       </c>
       <c r="D175">
-        <v>9.510953896805404</v>
+        <v>9.76604191691435</v>
       </c>
       <c r="E175">
-        <v>7.179339806731925</v>
+        <v>9.424405458917676</v>
       </c>
       <c r="F175">
-        <v>11.83005699213201</v>
+        <v>9.797504702290013</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.31020994602981</v>
+        <v>8.539428836955851</v>
       </c>
       <c r="C176">
-        <v>6.869216606296066</v>
+        <v>8.822971953574227</v>
       </c>
       <c r="D176">
-        <v>9.523975243524992</v>
+        <v>9.833331814371137</v>
       </c>
       <c r="E176">
-        <v>7.221714337227091</v>
+        <v>9.490409002366151</v>
       </c>
       <c r="F176">
-        <v>11.89484643690144</v>
+        <v>9.853235276396273</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.33681694870871</v>
+        <v>8.585253977113888</v>
       </c>
       <c r="C177">
-        <v>6.872714171724777</v>
+        <v>8.882686291593073</v>
       </c>
       <c r="D177">
-        <v>9.536718519770776</v>
+        <v>9.900584932515903</v>
       </c>
       <c r="E177">
-        <v>7.26381554125607</v>
+        <v>9.556369547875715</v>
       </c>
       <c r="F177">
-        <v>11.95927105201514</v>
+        <v>9.90879191704569</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.36291403493927</v>
+        <v>8.630851377119576</v>
       </c>
       <c r="C178">
-        <v>6.87600327901366</v>
+        <v>8.942329044954969</v>
       </c>
       <c r="D178">
-        <v>9.549190438982141</v>
+        <v>9.967801969910454</v>
       </c>
       <c r="E178">
-        <v>7.305645413272053</v>
+        <v>9.622287289871879</v>
       </c>
       <c r="F178">
-        <v>12.02333241456435</v>
+        <v>9.964177135106858</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.38850708901104</v>
+        <v>8.676223224920744</v>
       </c>
       <c r="C179">
-        <v>6.879088366544309</v>
+        <v>9.001900385795294</v>
       </c>
       <c r="D179">
-        <v>9.561397560471947</v>
+        <v>10.0349836226867</v>
       </c>
       <c r="E179">
-        <v>7.347205938868203</v>
+        <v>9.688162422686613</v>
       </c>
       <c r="F179">
-        <v>12.08703220514388</v>
+        <v>10.01939342302216</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.41360194106747</v>
+        <v>8.721371695927143</v>
       </c>
       <c r="C180">
-        <v>6.881973757760571</v>
+        <v>9.061400485735559</v>
       </c>
       <c r="D180">
-        <v>9.573346296145012</v>
+        <v>10.10213058456583</v>
       </c>
       <c r="E180">
-        <v>7.38849909618513</v>
+        <v>9.753995140445744</v>
       </c>
       <c r="F180">
-        <v>12.15037220113859</v>
+        <v>10.07444325467524</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.43820436335454</v>
+        <v>8.766298950293882</v>
       </c>
       <c r="C181">
-        <v>6.884663665275429</v>
+        <v>9.120829515884752</v>
       </c>
       <c r="D181">
-        <v>9.585042910376718</v>
+        <v>10.16924354684553</v>
       </c>
       <c r="E181">
-        <v>7.429526855139241</v>
+        <v>9.819785637101537</v>
       </c>
       <c r="F181">
-        <v>12.2133542703552</v>
+        <v>10.129329086344</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.46232007420143</v>
+        <v>8.811007132839737</v>
       </c>
       <c r="C182">
-        <v>6.887162191979603</v>
+        <v>9.180187646836666</v>
       </c>
       <c r="D182">
-        <v>9.596493522749554</v>
+        <v>10.23632319826814</v>
       </c>
       <c r="E182">
-        <v>7.470291176304351</v>
+        <v>9.885534106338175</v>
       </c>
       <c r="F182">
-        <v>12.27598036495291</v>
+        <v>10.18405335523719</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.48595473228326</v>
+        <v>8.855498374957385</v>
       </c>
       <c r="C183">
-        <v>6.889473333972104</v>
+        <v>9.239475048655066</v>
       </c>
       <c r="D183">
-        <v>9.607704112021269</v>
+        <v>10.30337022511862</v>
       </c>
       <c r="E183">
-        <v>7.510794011780261</v>
+        <v>9.951240741590169</v>
       </c>
       <c r="F183">
-        <v>12.33825251571671</v>
+        <v>10.23861848078051</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.50911394029601</v>
+        <v>8.89977479184518</v>
       </c>
       <c r="C184">
-        <v>6.891600982411008</v>
+        <v>9.298691890883712</v>
       </c>
       <c r="D184">
-        <v>9.618680518016651</v>
+        <v>10.37038531104684</v>
       </c>
       <c r="E184">
-        <v>7.551037303468875</v>
+        <v>10.01690573597434</v>
       </c>
       <c r="F184">
-        <v>12.40017282660622</v>
+        <v>10.29302686389133</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.53180324243264</v>
+        <v>8.943838483956711</v>
       </c>
       <c r="C185">
-        <v>6.893548927118054</v>
+        <v>9.357838342525055</v>
       </c>
       <c r="D185">
-        <v>9.629428444386452</v>
+        <v>10.43736913719334</v>
       </c>
       <c r="E185">
-        <v>7.591022984136</v>
+        <v>10.08252928228801</v>
       </c>
       <c r="F185">
-        <v>12.46174346958076</v>
+        <v>10.34728088708247</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.55402812378613</v>
+        <v>8.987691537074371</v>
       </c>
       <c r="C186">
-        <v>6.895320856911761</v>
+        <v>9.416914572054964</v>
       </c>
       <c r="D186">
-        <v>9.639953461495667</v>
+        <v>10.50432238202022</v>
       </c>
       <c r="E186">
-        <v>7.630752976040696</v>
+        <v>10.14811157296583</v>
       </c>
       <c r="F186">
-        <v>12.52296667970894</v>
+        <v>10.4013829149884</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.57579401215958</v>
+        <v>9.031336021021609</v>
       </c>
       <c r="C187">
-        <v>6.896920363435605</v>
+        <v>9.475920747401439</v>
       </c>
       <c r="D187">
-        <v>9.650261009053365</v>
+        <v>10.57124572140097</v>
       </c>
       <c r="E187">
-        <v>7.670229191258946</v>
+        <v>10.21365280006308</v>
       </c>
       <c r="F187">
-        <v>12.58384475050184</v>
+        <v>10.45533529360047</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.59710627450321</v>
+        <v>9.0747739906675</v>
       </c>
       <c r="C188">
-        <v>6.898350943273022</v>
+        <v>9.534857035956625</v>
       </c>
       <c r="D188">
-        <v>9.660356398821071</v>
+        <v>10.63813982853912</v>
       </c>
       <c r="E188">
-        <v>7.70945353157878</v>
+        <v>10.2791531552303</v>
       </c>
       <c r="F188">
-        <v>12.64438002953184</v>
+        <v>10.50914035107071</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>10.61797022042912</v>
+        <v>9.118007485700597</v>
       </c>
       <c r="C189">
-        <v>6.899615999110542</v>
+        <v>9.593723604563939</v>
       </c>
       <c r="D189">
-        <v>9.67024481698774</v>
+        <v>10.70500537396183</v>
       </c>
       <c r="E189">
-        <v>7.748427887590386</v>
+        <v>10.34461282968732</v>
       </c>
       <c r="F189">
-        <v>12.70457491428024</v>
+        <v>10.5628003972887</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10.63839109873684</v>
+        <v>9.16103852985732</v>
       </c>
       <c r="C190">
-        <v>6.900718843531162</v>
+        <v>9.652520619520068</v>
       </c>
       <c r="D190">
-        <v>9.679931327263182</v>
+        <v>10.77184302553092</v>
       </c>
       <c r="E190">
-        <v>7.787154139544909</v>
+        <v>10.41003201421029</v>
       </c>
       <c r="F190">
-        <v>12.76443184817434</v>
+        <v>10.61631772409554</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>10.65837409934776</v>
+        <v>9.203869132095857</v>
       </c>
       <c r="C191">
-        <v>6.901662699793522</v>
+        <v>9.711248246573383</v>
       </c>
       <c r="D191">
-        <v>9.689420873476758</v>
+        <v>10.83865344837511</v>
       </c>
       <c r="E191">
-        <v>7.825634156043483</v>
+        <v>10.47541089910034</v>
       </c>
       <c r="F191">
-        <v>12.82395331685324</v>
+        <v>10.66969460563305</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>10.67792435310934</v>
+        <v>9.246501285698834</v>
       </c>
       <c r="C192">
-        <v>6.902450704392368</v>
+        <v>9.769906650917431</v>
       </c>
       <c r="D192">
-        <v>9.698718281171578</v>
+        <v>10.90543730494445</v>
       </c>
       <c r="E192">
-        <v>7.863869794833608</v>
+        <v>10.54074967417914</v>
       </c>
       <c r="F192">
-        <v>12.88314184463948</v>
+        <v>10.72293329788054</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>10.6970469303952</v>
+        <v>9.28893696825206</v>
       </c>
       <c r="C193">
-        <v>6.903085910018095</v>
+        <v>9.828495997195997</v>
       </c>
       <c r="D193">
-        <v>9.707828261549531</v>
+        <v>10.9721952549258</v>
       </c>
       <c r="E193">
-        <v>7.901862902098064</v>
+        <v>10.60604852875491</v>
       </c>
       <c r="F193">
-        <v>12.94199999120005</v>
+        <v>10.7760360393388</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>10.71574684342812</v>
+        <v>9.331178142719283</v>
       </c>
       <c r="C194">
-        <v>6.903571285567386</v>
+        <v>9.887016449493318</v>
       </c>
       <c r="D194">
-        <v>9.716755413760989</v>
+        <v>11.03892795530579</v>
       </c>
       <c r="E194">
-        <v>7.939615312464007</v>
+        <v>10.67130765162366</v>
       </c>
       <c r="F194">
-        <v>13.00053034837843</v>
+        <v>10.82900505069977</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>10.73402904380751</v>
+        <v>9.373226755988744</v>
       </c>
       <c r="C195">
-        <v>6.903909720711456</v>
+        <v>9.945468171341359</v>
       </c>
       <c r="D195">
-        <v>9.725504225551427</v>
+        <v>11.10563606029528</v>
       </c>
       <c r="E195">
-        <v>7.977128849125743</v>
+        <v>10.7365272310387</v>
       </c>
       <c r="F195">
-        <v>13.05873553720953</v>
+        <v>10.8818425351209</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>10.75189842474866</v>
+        <v>9.415084739794061</v>
       </c>
       <c r="C196">
-        <v>6.90410402613321</v>
+        <v>10.00385132571006</v>
       </c>
       <c r="D196">
-        <v>9.734079078238874</v>
+        <v>11.17232022136936</v>
       </c>
       <c r="E196">
-        <v>8.014405323241284</v>
+        <v>10.80170745471672</v>
       </c>
       <c r="F196">
-        <v>13.11661820509758</v>
+        <v>10.93455067846125</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>10.76935982010107</v>
+        <v>9.456754010873409</v>
       </c>
       <c r="C197">
-        <v>6.904156935195237</v>
+        <v>10.06216607501336</v>
       </c>
       <c r="D197">
-        <v>9.742484248519915</v>
+        <v>11.23898108723883</v>
       </c>
       <c r="E197">
-        <v>8.051446534488772</v>
+        <v>10.86684850978047</v>
       </c>
       <c r="F197">
-        <v>13.17418102314479</v>
+        <v>10.98713164908496</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>10.78641800455403</v>
+        <v>9.498236470277522</v>
       </c>
       <c r="C198">
-        <v>6.904071107850866</v>
+        <v>10.12041258110318</v>
       </c>
       <c r="D198">
-        <v>9.750723908421977</v>
+        <v>11.30561930384149</v>
       </c>
       <c r="E198">
-        <v>8.088254270313502</v>
+        <v>10.93195058277864</v>
       </c>
       <c r="F198">
-        <v>13.23142668363018</v>
+        <v>11.03958759832508</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>10.80307769478414</v>
+        <v>9.539534004011143</v>
       </c>
       <c r="C199">
-        <v>6.90384912989807</v>
+        <v>10.17859100527092</v>
       </c>
       <c r="D199">
-        <v>9.758802131032326</v>
+        <v>11.37223551435372</v>
       </c>
       <c r="E199">
-        <v>8.124830306397046</v>
+        <v>10.99701385971931</v>
       </c>
       <c r="F199">
-        <v>13.28835789763098</v>
+        <v>11.09192066033223</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>10.81934354814506</v>
+        <v>9.580648482982765</v>
       </c>
       <c r="C200">
-        <v>6.903493516751906</v>
+        <v>10.23670150824661</v>
       </c>
       <c r="D200">
-        <v>9.766722891809824</v>
+        <v>11.43883035915948</v>
       </c>
       <c r="E200">
-        <v>8.161176406338152</v>
+        <v>11.06203852592312</v>
       </c>
       <c r="F200">
-        <v>13.34497739277722</v>
+        <v>11.14413295233221</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>10.83522016474816</v>
+        <v>9.62158176273303</v>
       </c>
       <c r="C201">
-        <v>6.903006714823506</v>
+        <v>10.29474425019642</v>
       </c>
       <c r="D201">
-        <v>9.774490068203827</v>
+        <v>11.50540447587395</v>
       </c>
       <c r="E201">
-        <v>8.197294321574164</v>
+        <v>11.12702476610611</v>
       </c>
       <c r="F201">
-        <v>13.40128791112649</v>
+        <v>11.19622657479372</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>10.85071208605716</v>
+        <v>9.662335683986225</v>
       </c>
       <c r="C202">
-        <v>6.902391101759076</v>
+        <v>10.35271939072471</v>
       </c>
       <c r="D202">
-        <v>9.78210744574371</v>
+        <v>11.57195849931141</v>
       </c>
       <c r="E202">
-        <v>8.233185791605239</v>
+        <v>11.19197276445852</v>
       </c>
       <c r="F202">
-        <v>13.4572922071672</v>
+        <v>11.24820361139797</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>10.86582379630408</v>
+        <v>9.702912072370571</v>
       </c>
       <c r="C203">
-        <v>6.901648990778292</v>
+        <v>10.41062708887025</v>
       </c>
       <c r="D203">
-        <v>9.789578718938641</v>
+        <v>11.63849306150512</v>
       </c>
       <c r="E203">
-        <v>8.268852543549563</v>
+        <v>11.25688270441004</v>
       </c>
       <c r="F203">
-        <v>13.51299304593184</v>
+        <v>11.30006612936709</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>10.88055972265023</v>
+        <v>9.743312738463025</v>
       </c>
       <c r="C204">
-        <v>6.90078263008146</v>
+        <v>10.46846750310892</v>
       </c>
       <c r="D204">
-        <v>9.796907490732888</v>
+        <v>11.7050087916848</v>
       </c>
       <c r="E204">
-        <v>8.304296292596325</v>
+        <v>11.32175476876473</v>
       </c>
       <c r="F204">
-        <v>13.56839320121851</v>
+        <v>11.35181617942494</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>10.89492423495536</v>
+        <v>9.783539478309892</v>
       </c>
       <c r="C205">
-        <v>6.899794205236912</v>
+        <v>10.52624079135016</v>
       </c>
       <c r="D205">
-        <v>9.804097278782116</v>
+        <v>11.77150631628391</v>
       </c>
       <c r="E205">
-        <v>8.339518741530966</v>
+        <v>11.386589139761</v>
       </c>
       <c r="F205">
-        <v>13.6234954539133</v>
+        <v>11.40345579602545</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>10.90892164717207</v>
+        <v>9.823594072888028</v>
       </c>
       <c r="C206">
-        <v>6.898685841730707</v>
+        <v>10.58394711093955</v>
       </c>
       <c r="D206">
-        <v>9.811151515979425</v>
+        <v>11.83798625893288</v>
       </c>
       <c r="E206">
-        <v>8.374521581046688</v>
+        <v>11.45138599888237</v>
       </c>
       <c r="F206">
-        <v>13.67830259041326</v>
+        <v>11.45498699748897</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>10.92255621658616</v>
+        <v>9.863478288564766</v>
       </c>
       <c r="C207">
-        <v>6.897459604187322</v>
+        <v>10.64158661865528</v>
       </c>
       <c r="D207">
-        <v>9.818073549749572</v>
+        <v>11.9044492404526</v>
       </c>
       <c r="E207">
-        <v>8.409306489633586</v>
+        <v>11.51614552695328</v>
       </c>
       <c r="F207">
-        <v>13.73281740114119</v>
+        <v>11.50641178607204</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>10.93583214520185</v>
+        <v>9.903193877267061</v>
       </c>
       <c r="C208">
-        <v>6.896117500748222</v>
+        <v>10.69915947070844</v>
       </c>
       <c r="D208">
-        <v>9.824866648529188</v>
+        <v>11.97089587885449</v>
       </c>
       <c r="E208">
-        <v>8.443875133493609</v>
+        <v>11.58086790415477</v>
       </c>
       <c r="F208">
-        <v>13.78704267914357</v>
+        <v>11.55773214817812</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>10.94875357961102</v>
+        <v>9.942742576201686</v>
       </c>
       <c r="C209">
-        <v>6.89466148265242</v>
+        <v>10.75666582274587</v>
       </c>
       <c r="D209">
-        <v>9.831534001890372</v>
+        <v>12.03732678933182</v>
       </c>
       <c r="E209">
-        <v>8.47822916676208</v>
+        <v>11.64555330995665</v>
       </c>
       <c r="F209">
-        <v>13.84098121877584</v>
+        <v>11.60895005443135</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>10.96132461162852</v>
+        <v>9.982126108244234</v>
       </c>
       <c r="C210">
-        <v>6.893093445599211</v>
+        <v>10.81410582984921</v>
       </c>
       <c r="D210">
-        <v>9.838078719674519</v>
+        <v>12.10374258425823</v>
       </c>
       <c r="E210">
-        <v>8.512370231235977</v>
+        <v>11.71020192312201</v>
       </c>
       <c r="F210">
-        <v>13.89463581446515</v>
+        <v>11.66006745984305</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>10.9735492791467</v>
+        <v>10.02134618198727</v>
       </c>
       <c r="C211">
-        <v>6.891415232931171</v>
+        <v>10.87147964652748</v>
       </c>
       <c r="D211">
-        <v>9.844503838687301</v>
+        <v>12.17014387321184</v>
       </c>
       <c r="E211">
-        <v>8.546299956694769</v>
+        <v>11.77481392172622</v>
       </c>
       <c r="F211">
-        <v>13.94800925954733</v>
+        <v>11.71108630394126</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>10.98543156536822</v>
+        <v>10.06040449167323</v>
       </c>
       <c r="C212">
-        <v>6.889628634664661</v>
+        <v>10.92878742672309</v>
       </c>
       <c r="D212">
-        <v>9.850812322397898</v>
+        <v>12.23653126291953</v>
       </c>
       <c r="E212">
-        <v>8.5800199606555</v>
+        <v>11.83938948313163</v>
       </c>
       <c r="F212">
-        <v>14.00110434517215</v>
+        <v>11.76200851089677</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>10.99697539994287</v>
+        <v>10.09930271749588</v>
       </c>
       <c r="C213">
-        <v>6.887735390724137</v>
+        <v>10.98602932381172</v>
       </c>
       <c r="D213">
-        <v>9.857007059978809</v>
+        <v>12.30290535728776</v>
       </c>
       <c r="E213">
-        <v>8.613531848563527</v>
+        <v>11.903928783969</v>
       </c>
       <c r="F213">
-        <v>14.05392385927916</v>
+        <v>11.81283598965293</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.00818466093379</v>
+        <v>10.13804252557219</v>
       </c>
       <c r="C214">
-        <v>6.885737191726688</v>
+        <v>11.04320549059737</v>
       </c>
       <c r="D214">
-        <v>9.863090873130078</v>
+        <v>12.3692667573697</v>
       </c>
       <c r="E214">
-        <v>8.646837213803204</v>
+        <v>11.96843200015473</v>
       </c>
       <c r="F214">
-        <v>14.10647058563529</v>
+        <v>11.86357063407269</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>11.01906317265784</v>
+        <v>10.17662556802691</v>
       </c>
       <c r="C215">
-        <v>6.883635679102919</v>
+        <v>11.10031607931493</v>
       </c>
       <c r="D215">
-        <v>9.869066515387802</v>
+        <v>12.43561606137167</v>
       </c>
       <c r="E215">
-        <v>8.679937637649845</v>
+        <v>12.03289930688048</v>
       </c>
       <c r="F215">
-        <v>14.15874730293127</v>
+        <v>11.9142143230494</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>11.02961470691497</v>
+        <v>10.21505348323887</v>
       </c>
       <c r="C216">
-        <v>6.881432448581906</v>
+        <v>11.15736124163072</v>
       </c>
       <c r="D216">
-        <v>9.874936671151991</v>
+        <v>12.50195386467307</v>
       </c>
       <c r="E216">
-        <v>8.712834689529723</v>
+        <v>12.0973308785812</v>
       </c>
       <c r="F216">
-        <v>14.2107567839359</v>
+        <v>11.96476892063845</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11.03984298440574</v>
+        <v>10.2533278957449</v>
       </c>
       <c r="C217">
-        <v>6.879129049439279</v>
+        <v>11.21434112863998</v>
       </c>
       <c r="D217">
-        <v>9.880703962519199</v>
+        <v>12.56828075978981</v>
       </c>
       <c r="E217">
-        <v>8.745529926681822</v>
+        <v>12.16172688895606</v>
       </c>
       <c r="F217">
-        <v>14.26250179470452</v>
+        <v>12.01523627620776</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>11.04975167744274</v>
+        <v>10.29145041645996</v>
       </c>
       <c r="C218">
-        <v>6.876726986451548</v>
+        <v>11.27125589086625</v>
       </c>
       <c r="D218">
-        <v>9.886370948265068</v>
+        <v>12.63459733634815</v>
       </c>
       <c r="E218">
-        <v>8.778024894388151</v>
+        <v>12.22608751096761</v>
       </c>
       <c r="F218">
-        <v>14.31398509383873</v>
+        <v>12.06561822450343</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>11.05934440433336</v>
+        <v>10.32942264280792</v>
       </c>
       <c r="C219">
-        <v>6.874227721759087</v>
+        <v>11.32810567826131</v>
       </c>
       <c r="D219">
-        <v>9.891940122903609</v>
+        <v>12.70090418114083</v>
       </c>
       <c r="E219">
-        <v>8.810321126335214</v>
+        <v>12.29041291680122</v>
       </c>
       <c r="F219">
-        <v>14.36520943179174</v>
+        <v>12.11591658585327</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>11.06862473437922</v>
+        <v>10.36724615870705</v>
       </c>
       <c r="C220">
-        <v>6.871632674140041</v>
+        <v>11.38489064020303</v>
       </c>
       <c r="D220">
-        <v>9.897413923452579</v>
+        <v>12.76720187807781</v>
       </c>
       <c r="E220">
-        <v>8.842420144214531</v>
+        <v>12.35470327788689</v>
       </c>
       <c r="F220">
-        <v>14.41617755022259</v>
+        <v>12.16613316621958</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>11.07759618861618</v>
+        <v>10.40492253476676</v>
       </c>
       <c r="C221">
-        <v>6.868943222446772</v>
+        <v>11.44161092549859</v>
       </c>
       <c r="D221">
-        <v>9.902794728140449</v>
+        <v>12.83349100814845</v>
       </c>
       <c r="E221">
-        <v>8.874323457674667</v>
+        <v>12.4189587649039</v>
       </c>
       <c r="F221">
-        <v>14.4668921813924</v>
+        <v>12.21626975733575</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>11.08626223914086</v>
+        <v>10.44245332837861</v>
       </c>
       <c r="C222">
-        <v>6.866160705118857</v>
+        <v>11.49826668238103</v>
       </c>
       <c r="D222">
-        <v>9.90808485550491</v>
+        <v>12.89977214946268</v>
       </c>
       <c r="E222">
-        <v>8.906032564718878</v>
+        <v>12.48317954773896</v>
       </c>
       <c r="F222">
-        <v>14.51735604760127</v>
+        <v>12.26632813685691</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11.09462630862457</v>
+        <v>10.47984008377394</v>
       </c>
       <c r="C223">
-        <v>6.863286421260178</v>
+        <v>11.55485805850891</v>
       </c>
       <c r="D223">
-        <v>9.913286571067871</v>
+        <v>12.96604587724789</v>
       </c>
       <c r="E223">
-        <v>8.937548952385114</v>
+        <v>12.54736579550535</v>
       </c>
       <c r="F223">
-        <v>14.56757186066352</v>
+        <v>12.3163100683216</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>11.10269177236338</v>
+        <v>10.5170843321764</v>
       </c>
       <c r="C224">
-        <v>6.860321632987938</v>
+        <v>11.6113852009667</v>
       </c>
       <c r="D224">
-        <v>9.918402085789779</v>
+        <v>13.03231276380801</v>
       </c>
       <c r="E224">
-        <v>8.968874095172501</v>
+        <v>12.61151767654027</v>
       </c>
       <c r="F224">
-        <v>14.61754232142085</v>
+        <v>12.36621730153097</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>11.11046195914946</v>
+        <v>10.55418759188265</v>
       </c>
       <c r="C225">
-        <v>6.857267564621303</v>
+        <v>11.66784825626366</v>
       </c>
       <c r="D225">
-        <v>9.923433555222029</v>
+        <v>13.09857337850605</v>
       </c>
       <c r="E225">
-        <v>9.00000945625133</v>
+        <v>12.67563535838273</v>
       </c>
       <c r="F225">
-        <v>14.66727011928988</v>
+        <v>12.41605157251976</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>11.11794015019966</v>
+        <v>10.5911513683636</v>
       </c>
       <c r="C226">
-        <v>6.854125405214145</v>
+        <v>11.7242473703255</v>
       </c>
       <c r="D226">
-        <v>9.928383086057135</v>
+        <v>13.1648282878087</v>
       </c>
       <c r="E226">
-        <v>9.030956487620186</v>
+        <v>12.73971900777861</v>
       </c>
       <c r="F226">
-        <v>14.71675793184106</v>
+        <v>12.46581460359087</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>11.12512958079131</v>
+        <v>10.62797715437419</v>
       </c>
       <c r="C227">
-        <v>6.85089630897177</v>
+        <v>11.78058268849611</v>
       </c>
       <c r="D227">
-        <v>9.93325273435066</v>
+        <v>13.23107805523882</v>
       </c>
       <c r="E227">
-        <v>9.061716629836766</v>
+        <v>12.80376879067555</v>
       </c>
       <c r="F227">
-        <v>14.76600842441027</v>
+        <v>12.51550810329124</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>11.13203344059163</v>
+        <v>10.66466643005424</v>
       </c>
       <c r="C228">
-        <v>6.847581395432663</v>
+        <v>11.83685435554864</v>
       </c>
       <c r="D228">
-        <v>9.938044504842232</v>
+        <v>13.29732324122837</v>
       </c>
       <c r="E228">
-        <v>9.092291311781095</v>
+        <v>12.86778487221275</v>
       </c>
       <c r="F228">
-        <v>14.81502424973914</v>
+        <v>12.56513376710902</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>11.13865487421149</v>
+        <v>10.70122066302887</v>
       </c>
       <c r="C229">
-        <v>6.844181751994547</v>
+        <v>11.89306251567066</v>
       </c>
       <c r="D229">
-        <v>9.942760357130449</v>
+        <v>13.36356440333264</v>
       </c>
       <c r="E229">
-        <v>9.122681951165939</v>
+        <v>12.9317674167174</v>
       </c>
       <c r="F229">
-        <v>14.86380804764333</v>
+        <v>12.61469327712019</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>11.14499698152867</v>
+        <v>10.73764130850018</v>
       </c>
       <c r="C230">
-        <v>6.840698433334344</v>
+        <v>11.9492073124546</v>
       </c>
       <c r="D230">
-        <v>9.94740220392138</v>
+        <v>13.42980209612049</v>
       </c>
       <c r="E230">
-        <v>9.15288995477629</v>
+        <v>12.99571658769942</v>
       </c>
       <c r="F230">
-        <v>14.91236244470595</v>
+        <v>12.66418830176144</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>11.15106281840416</v>
+        <v>10.77392980937091</v>
       </c>
       <c r="C231">
-        <v>6.837132462921511</v>
+        <v>12.00528888892139</v>
       </c>
       <c r="D231">
-        <v>9.951971910410705</v>
+        <v>13.49603687109443</v>
       </c>
       <c r="E231">
-        <v>9.182916717903892</v>
+        <v>13.05963254784544</v>
       </c>
       <c r="F231">
-        <v>14.96069005399709</v>
+        <v>12.71362049626306</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>11.15685539715533</v>
+        <v>10.81008759632059</v>
       </c>
       <c r="C232">
-        <v>6.833484834288487</v>
+        <v>12.06130738750156</v>
       </c>
       <c r="D232">
-        <v>9.956471300090083</v>
+        <v>13.56226927666041</v>
       </c>
       <c r="E232">
-        <v>9.212763624852633</v>
+        <v>13.12351545901307</v>
       </c>
       <c r="F232">
-        <v>15.00879347481634</v>
+        <v>12.7629915032642</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>11.16237768709791</v>
+        <v>10.84611608790497</v>
       </c>
       <c r="C233">
-        <v>6.829756510585642</v>
+        <v>12.11726295003674</v>
       </c>
       <c r="D233">
-        <v>9.960902153044472</v>
+        <v>13.62849985828393</v>
       </c>
       <c r="E233">
-        <v>9.242432048970681</v>
+        <v>13.18736548222497</v>
       </c>
       <c r="F233">
-        <v>15.05667529245681</v>
+        <v>12.81230295226886</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>11.16763261507193</v>
+        <v>10.8820166906838</v>
       </c>
       <c r="C234">
-        <v>6.825948427043965</v>
+        <v>12.17315571778022</v>
       </c>
       <c r="D234">
-        <v>9.96526620540012</v>
+        <v>13.69472915832869</v>
       </c>
       <c r="E234">
-        <v>9.271923352686265</v>
+        <v>13.25118277766333</v>
       </c>
       <c r="F234">
-        <v>15.10433807799026</v>
+        <v>12.86155645920647</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>11.17262306604921</v>
+        <v>10.91779079926872</v>
       </c>
       <c r="C235">
-        <v>6.822061490638371</v>
+        <v>12.22898583139539</v>
       </c>
       <c r="D235">
-        <v>9.969565154757609</v>
+        <v>13.76095771601959</v>
       </c>
       <c r="E235">
-        <v>9.301238887461833</v>
+        <v>13.31496750466488</v>
       </c>
       <c r="F235">
-        <v>15.15178438807227</v>
+        <v>12.91075362763399</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>11.17735188391832</v>
+        <v>10.95343979645477</v>
       </c>
       <c r="C236">
-        <v>6.818096580940408</v>
+        <v>12.28475343094758</v>
       </c>
       <c r="D236">
-        <v>9.97380065855282</v>
+        <v>13.82718606753568</v>
       </c>
       <c r="E236">
-        <v>9.330379993983165</v>
+        <v>13.37871982171275</v>
       </c>
       <c r="F236">
-        <v>15.19901676476615</v>
+        <v>12.95989604845579</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>11.18182187137794</v>
+        <v>10.98896505332455</v>
       </c>
       <c r="C237">
-        <v>6.814054551752013</v>
+        <v>12.34045865589482</v>
       </c>
       <c r="D237">
-        <v>9.977974333568874</v>
+        <v>13.89341474592051</v>
       </c>
       <c r="E237">
-        <v>9.359348002344671</v>
+        <v>13.44243988642946</v>
       </c>
       <c r="F237">
-        <v>15.24603773538421</v>
+        <v>13.00898529980393</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>11.18603579096617</v>
+        <v>11.02436792926668</v>
       </c>
       <c r="C238">
-        <v>6.809936230595433</v>
+        <v>12.39610164511343</v>
       </c>
       <c r="D238">
-        <v>9.982087761005198</v>
+        <v>13.95964428097884</v>
       </c>
       <c r="E238">
-        <v>9.388144231835076</v>
+        <v>13.50612785557715</v>
       </c>
       <c r="F238">
-        <v>15.29284981234469</v>
+        <v>13.05802294636509</v>
       </c>
     </row>
   </sheetData>
